--- a/Batch/18/Day_3.xlsx
+++ b/Batch/18/Day_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Work\Acciojob\Modules\Excel\Batch\18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C81E46-B1E9-43F7-AEB0-7C153F222761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8BC54-0431-4AE6-AE7F-8E63A3CCAE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" tabRatio="721" activeTab="3" xr2:uid="{3A060BA9-CD9F-4E92-B544-B7A4B6BE15C6}"/>
   </bookViews>
@@ -20,8 +20,14 @@
     <sheet name="Cell Referencing" sheetId="20" r:id="rId5"/>
     <sheet name="Conditional Formatting" sheetId="21" r:id="rId6"/>
     <sheet name="Functions" sheetId="22" r:id="rId7"/>
-    <sheet name="Arithmatic" sheetId="23" r:id="rId8"/>
+    <sheet name="Sum" sheetId="23" r:id="rId8"/>
+    <sheet name="Sum Revision" sheetId="24" r:id="rId9"/>
+    <sheet name="Count" sheetId="25" r:id="rId10"/>
+    <sheet name="Average" sheetId="26" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dataset!$B$1:$O$501</definedName>
   </definedNames>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3879" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="399">
   <si>
     <t>Day 1</t>
   </si>
@@ -2687,11 +2693,131 @@
   <si>
     <t>4. Austin Permanent Staff: Calculate the total work hours per week for employees based in Austin who are "Permanent" employees.</t>
   </si>
+  <si>
+    <t>8. Annual Review: You are asked to sum up all salaries to get a sense of total yearly payments for employee reviews.</t>
+  </si>
+  <si>
+    <t>10. Other Genders' Work Hours: What is the total number of work hours per week for employees who identify as "Other" in gender?</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>criteria</t>
+  </si>
+  <si>
+    <t>SumProduct</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Array1</t>
+  </si>
+  <si>
+    <t>Array2</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>only count numeric values</t>
+  </si>
+  <si>
+    <t>CountA</t>
+  </si>
+  <si>
+    <t>all non blank values</t>
+  </si>
+  <si>
+    <t>Countblank</t>
+  </si>
+  <si>
+    <t>counts blank cells</t>
+  </si>
+  <si>
+    <t>1. Total Employees: Count the total number of employees in the dataset.</t>
+  </si>
+  <si>
+    <t>COUNT(Dataset!A2:A501)</t>
+  </si>
+  <si>
+    <t>COUNTA(Dataset!B2:B501)</t>
+  </si>
+  <si>
+    <t>4. Experienced, High Performers: Count the number of employees with more than 20 years of experience and a performance rating higher than 8.</t>
+  </si>
+  <si>
+    <t>&gt;20</t>
+  </si>
+  <si>
+    <t>&gt;8</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Mean Vs Average</t>
+  </si>
+  <si>
+    <t>Arithmatic</t>
+  </si>
+  <si>
+    <t>Geometric</t>
+  </si>
+  <si>
+    <t>Harmonic</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>4. Projects Handled: What is the average number of projects assigned to each employee?</t>
+  </si>
+  <si>
+    <t>Averageif</t>
+  </si>
+  <si>
+    <t>average_range</t>
+  </si>
+  <si>
+    <t>AVERAGEIF(Dataset!E1:E501,Dataset!E478,Dataset!O1:O501)</t>
+  </si>
+  <si>
+    <t>Averageifs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="&quot;₹&quot;\ #,##0"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2854,7 +2980,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2871,9 +2997,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -2895,10 +3018,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -3080,8 +3207,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>124313</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Ink 9">
@@ -3100,7 +3227,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Ink 9">
@@ -3145,8 +3272,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>86254</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -3165,7 +3292,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -3210,8 +3337,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>134475</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Ink 13">
@@ -3230,7 +3357,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Ink 13">
@@ -3275,8 +3402,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>154635</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Ink 16">
@@ -3295,7 +3422,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Ink 16">
@@ -3340,8 +3467,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1736</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Ink 21">
@@ -3360,7 +3487,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Ink 21">
@@ -3405,8 +3532,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>113152</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Ink 26">
@@ -3425,7 +3552,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Ink 26">
@@ -3470,8 +3597,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>106788</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Ink 30">
@@ -3490,7 +3617,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Ink 30">
@@ -3535,8 +3662,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>103188</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Ink 31">
@@ -3555,7 +3682,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Ink 31">
@@ -3600,8 +3727,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>135554</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Ink 32">
@@ -3620,7 +3747,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Ink 32">
@@ -3665,8 +3792,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104628</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="36" name="Ink 35">
@@ -3685,7 +3812,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="36" name="Ink 35">
@@ -3730,8 +3857,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>29407</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Ink 37">
@@ -3750,7 +3877,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Ink 37">
@@ -3795,8 +3922,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46327</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Ink 39">
@@ -3815,7 +3942,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Ink 39">
@@ -3860,8 +3987,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>143201</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Ink 43">
@@ -3880,7 +4007,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Ink 43">
@@ -3925,8 +4052,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>169563</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Ink 44">
@@ -3945,7 +4072,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Ink 44">
@@ -3990,8 +4117,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>151481</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Ink 45">
@@ -4010,7 +4137,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Ink 45">
@@ -4055,8 +4182,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>18967</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Ink 46">
@@ -4075,7 +4202,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Ink 46">
@@ -4120,8 +4247,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>135655</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Ink 47">
@@ -4140,7 +4267,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Ink 47">
@@ -4185,8 +4312,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>132333</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="49" name="Ink 48">
@@ -4205,7 +4332,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="49" name="Ink 48">
@@ -4250,8 +4377,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>68715</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="50" name="Ink 49">
@@ -4270,7 +4397,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="50" name="Ink 49">
@@ -4315,8 +4442,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>132517</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="51" name="Ink 50">
@@ -4335,7 +4462,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="51" name="Ink 50">
@@ -4380,8 +4507,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>87843</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="61" name="Ink 60">
@@ -4400,7 +4527,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="61" name="Ink 60">
@@ -4445,8 +4572,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>59043</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="Ink 61">
@@ -4465,7 +4592,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="Ink 61">
@@ -4510,8 +4637,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>104276</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="63" name="Ink 62">
@@ -4530,7 +4657,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="63" name="Ink 62">
@@ -4575,8 +4702,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Ink 70">
@@ -4595,7 +4722,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Ink 70">
@@ -4728,8 +4855,8 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>171566</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="77" name="Ink 76">
@@ -4748,7 +4875,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="77" name="Ink 76">
@@ -4793,8 +4920,8 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>94248</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="79" name="Ink 78">
@@ -4813,7 +4940,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="79" name="Ink 78">
@@ -4858,8 +4985,8 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>77019</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="80" name="Ink 79">
@@ -4878,7 +5005,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="80" name="Ink 79">
@@ -4923,8 +5050,8 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>7874</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="82" name="Ink 81">
@@ -4943,7 +5070,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="82" name="Ink 81">
@@ -4988,8 +5115,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>943</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Ink 83">
@@ -5008,7 +5135,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Ink 83">
@@ -5053,8 +5180,8 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>95328</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="88" name="Ink 87">
@@ -5073,7 +5200,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="88" name="Ink 87">
@@ -5162,8 +5289,8 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>59096</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="123" name="Ink 122">
@@ -5182,7 +5309,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="123" name="Ink 122">
@@ -5227,8 +5354,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>169925</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="140" name="Ink 139">
@@ -5247,7 +5374,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="140" name="Ink 139">
@@ -5292,8 +5419,8 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>18514</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="141" name="Ink 140">
@@ -5312,7 +5439,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="141" name="Ink 140">
@@ -5538,8 +5665,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>102625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -5558,7 +5685,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -5603,8 +5730,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>134141</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -5623,7 +5750,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -5668,8 +5795,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>94673</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Ink 32">
@@ -5688,7 +5815,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Ink 32">
@@ -5777,8 +5904,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>37497</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Ink 39">
@@ -5797,7 +5924,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Ink 39">
@@ -5842,8 +5969,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>104457</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Ink 40">
@@ -5862,7 +5989,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Ink 40">
@@ -5907,8 +6034,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>122899</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Ink 45">
@@ -5927,7 +6054,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Ink 45">
@@ -5972,8 +6099,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>103099</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="63" name="Ink 62">
@@ -5992,7 +6119,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="63" name="Ink 62">
@@ -6037,8 +6164,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>76901</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Ink 63">
@@ -6057,7 +6184,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Ink 63">
@@ -6186,9 +6313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>566206</xdr:colOff>
+      <xdr:colOff>570968</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>174250</xdr:rowOff>
+      <xdr:rowOff>179012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6222,6 +6349,1147 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12382</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>417194</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>135254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790A1572-EEFA-3D22-7E2D-7FC704CFEBCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1509712" y="2739390"/>
+          <a:ext cx="3669030" cy="317182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>420052</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D1AFD4-231C-A317-1148-F9B0747B75D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1508760" y="3117532"/>
+          <a:ext cx="3672840" cy="253443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>240350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552190</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>170385</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1BC003-4B22-D08F-6D5E-39DCF03AC0D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6285240" y="3850901"/>
+            <a:ext cx="957682" cy="124838"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1BC003-4B22-D08F-6D5E-39DCF03AC0D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6279089" y="3844785"/>
+              <a:ext cx="969983" cy="137070"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>64671</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>572353</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179189</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E873BFA-CBF2-18B5-BAFF-8829F4E0BD43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5463720" y="3850901"/>
+            <a:ext cx="507682" cy="128880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E873BFA-CBF2-18B5-BAFF-8829F4E0BD43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5457542" y="3844781"/>
+              <a:ext cx="520038" cy="141120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207228</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306948</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160411</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="25" name="Ink 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54AD94C0-578B-0E5D-4062-40F59CF5CEF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6897960" y="4234939"/>
+            <a:ext cx="99720" cy="93240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="Ink 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54AD94C0-578B-0E5D-4062-40F59CF5CEF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6891840" y="4228819"/>
+              <a:ext cx="111960" cy="105480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165828</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>287230</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7238</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="26" name="Ink 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F0C602-123D-7F67-FAE0-CE473BAAEF7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6856560" y="4405579"/>
+            <a:ext cx="116640" cy="127080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Ink 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F0C602-123D-7F67-FAE0-CE473BAAEF7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6850440" y="4399459"/>
+              <a:ext cx="128880" cy="139320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>278312</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161340</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86750A2B-C8E5-1129-DAA4-C9A50F7841D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6395040" y="4015339"/>
+            <a:ext cx="569242" cy="132562"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86750A2B-C8E5-1129-DAA4-C9A50F7841D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6388919" y="4009215"/>
+              <a:ext cx="581484" cy="144810"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236390</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>421430</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171083</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBBD6A8-DB82-8B0F-8B7F-2345EEB492FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6281280" y="4225301"/>
+            <a:ext cx="185040" cy="294758"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBBD6A8-DB82-8B0F-8B7F-2345EEB492FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6275322" y="4219183"/>
+              <a:ext cx="196955" cy="306995"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>226753</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352392</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>65027</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="89" name="Ink 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B66257-2A65-FA2E-CE5F-3D03B6143DF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5625802" y="5733341"/>
+            <a:ext cx="771480" cy="130320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="89" name="Ink 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B66257-2A65-FA2E-CE5F-3D03B6143DF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5619682" y="5727221"/>
+              <a:ext cx="783720" cy="142560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162951</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>534547</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>37516</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="90" name="Ink 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC3733E-E45C-1306-07C4-93C9A7E2C05D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5562000" y="4739381"/>
+            <a:ext cx="2954962" cy="915562"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="90" name="Ink 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC3733E-E45C-1306-07C4-93C9A7E2C05D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5555870" y="4733229"/>
+              <a:ext cx="2967222" cy="927866"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>437630</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>96790</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>102745</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="94" name="Ink 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D737D235-84F4-1A42-3129-3557B2ADA070}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6482520" y="5733259"/>
+            <a:ext cx="305002" cy="168120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="94" name="Ink 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D737D235-84F4-1A42-3129-3557B2ADA070}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6476310" y="5727152"/>
+              <a:ext cx="317421" cy="180334"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316670</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>26658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56830</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>172622</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="100" name="Ink 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C31596-F411-2376-2588-B24077CC4350}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6361560" y="6006499"/>
+            <a:ext cx="386002" cy="141202"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="100" name="Ink 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C31596-F411-2376-2588-B24077CC4350}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6355444" y="6000375"/>
+              <a:ext cx="398233" cy="153449"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189588</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>46036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285790</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18631</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="101" name="Ink 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF868A04-8ACF-041C-7D7F-2815D36EEF79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6880320" y="4576219"/>
+            <a:ext cx="91440" cy="149040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="101" name="Ink 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF868A04-8ACF-041C-7D7F-2815D36EEF79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6874200" y="4570099"/>
+              <a:ext cx="103680" cy="161280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>551033</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>39660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372553</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57998</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="103" name="Ink 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABDB65C-EFE8-7ABB-D0F8-C715FB5178F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5304240" y="4026221"/>
+            <a:ext cx="467362" cy="561960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="103" name="Ink 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABDB65C-EFE8-7ABB-D0F8-C715FB5178F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5298119" y="4020101"/>
+              <a:ext cx="479604" cy="574200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>201050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179956C0-B6DA-4668-09FA-5529BDC170B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1493921" y="7760368"/>
+          <a:ext cx="7344800" cy="257211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85223</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>40106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190713</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>64448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADD0D41-4618-73A6-CC4C-4CB4153A5D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5489407" y="8161422"/>
+          <a:ext cx="3338977" cy="200053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>418708</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>256211</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>36063</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="130" name="Ink 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F5FA1B-A5FD-484F-2B8F-E3A2F47C1896}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8409682" y="8359712"/>
+            <a:ext cx="484200" cy="519562"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="130" name="Ink 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F5FA1B-A5FD-484F-2B8F-E3A2F47C1896}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8403562" y="8353531"/>
+              <a:ext cx="496440" cy="531924"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238456</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>151506</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>17343</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="131" name="Ink 130">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59916CE3-292F-8306-BB1E-915FCE3314F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5642640" y="8338472"/>
+            <a:ext cx="2499840" cy="522082"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="131" name="Ink 130">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59916CE3-292F-8306-BB1E-915FCE3314F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5636521" y="8332351"/>
+              <a:ext cx="2512078" cy="534324"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sum"/>
+      <sheetName val="Sumif"/>
+      <sheetName val="Sumifs"/>
+      <sheetName val="Sumproduct"/>
+      <sheetName val="Count"/>
+      <sheetName val="Countif"/>
+      <sheetName val="Countifs"/>
+      <sheetName val="Average"/>
+      <sheetName val="Averageif"/>
+      <sheetName val="Averageifs"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="18">
+          <cell r="D18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6941,7 +8209,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">185 683 3570,'0'0'12701,"0"-6"-11209,0-25 5076,0 59-5938,-18 307-2554,17-308-2406,-3-8-4500</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1041.86">91 1308 2753,'0'0'15271,"-2"-4"-14126,1 3-1082,0-1-1,0 1 1,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1-1,0 0 1,0 0 0,-1 1 0,1-1 0,0 1 0,2-3 0,0 1-17,-1 1 0,1 0 1,0 0-1,0 0 1,-1 1-1,1-1 0,0 1 1,1-1-1,-1 1 1,0 0-1,0 0 1,0 0-1,1 1 0,-1-1 1,0 1-1,7 0 1,-6 0-34,0-1 1,0 1-1,-1 0 0,1 1 1,0-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,3 3 1,-5-2-7,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,0-1 0,-1 4-1,1 3 17,-1 0-1,0 0 1,0 0-1,-1 0 1,0-1-1,-1 1 1,1-1-1,-9 17 1,-41 56 57,37-60-51,-24 44 0,38-65-33,1 1 0,0-1 0,0 0 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 0 0,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 0 0,-1 0 1,1 1-1,0-1 0,31 3-14,37-13 3,-11-5-314,36-9-1138,-31 13-3522,-47 11 77</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1041.84">91 1308 2753,'0'0'15271,"-2"-4"-14126,1 3-1082,0-1-1,0 1 1,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1-1,0 0 1,0 0 0,-1 1 0,1-1 0,0 1 0,2-3 0,0 1-17,-1 1 0,1 0 1,0 0-1,0 0 1,-1 1-1,1-1 0,0 1 1,1-1-1,-1 1 1,0 0-1,0 0 1,0 0-1,1 1 0,-1-1 1,0 1-1,7 0 1,-6 0-34,0-1 1,0 1-1,-1 0 0,1 1 1,0-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,3 3 1,-5-2-7,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,0-1 0,-1 4-1,1 3 17,-1 0-1,0 0 1,0 0-1,-1 0 1,0-1-1,-1 1 1,1-1-1,-9 17 1,-41 56 57,37-60-51,-24 44 0,38-65-33,1 1 0,0-1 0,0 0 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 0 0,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 0 0,-1 0 1,1 1-1,0-1 0,31 3-14,37-13 3,-11-5-314,36-9-1138,-31 13-3522,-47 11 77</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1768.55">127 1832 9636,'0'0'10885,"5"-7"-10156,1-2-609,1 1 0,1-1 1,0 2-1,0-1 0,0 1 1,1 0-1,0 1 0,0 0 1,0 1-1,1 0 0,0 0 1,0 1-1,0 0 0,1 1 1,-1 0-1,1 1 0,0 0 1,12 0-1,-22 6-118,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 1-1,-1-1 1,-1 4 0,-1 1 10,-1-1 0,-1 1-1,0-1 1,0-1 0,-11 14 0,12-16-33,-1 0 0,1 0 0,0 1 0,1-1 1,-1 1-1,1 0 0,0 0 0,0 0 0,1 1 0,0-1 0,0 0 0,0 1 1,-1 11-1,4-17-1,-1-1 0,0 1 1,1 0-1,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 1,0 1-1,0-1 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,1 0 0,27 1-220,-22-1 102,-1 0 84,49 7-289,-54-6 348,0-1-1,0 0 1,0 0 0,-1 0-1,1 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,-1-1 0,1 1-1,0 0 1,-1 0-1,1-1 1,-1 1-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1-1 1,1 1 0,-2 1-1,-5 4 117,0 0-1,-1-1 1,1 0-1,-1 0 1,0-1 0,0 0-1,-1 0 1,1-1-1,-13 3 1,8-1-35,-107 41 941,59-22-2937,0-1-8486,43-17-1669</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2757.62">154 2327 12134,'0'0'8950,"0"-6"-8208,0-20-64,0 28-202,0 0-441,0 0 0,0 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0 0,3 3-1,-1-2 89,-2-1-59,0 0-1,1 0 1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0-1,0 0 1,0 1 0,0-2 0,0 1 0,0 0 0,4 1 0,-6-3 2,0 1-69,0-1-1,1 1 0,-1-1 1,0 1-1,0 0 0,0-1 1,1 1-1,-1-1 0,0 1 1,0 0-1,1-1 0,-1 1 1,0 0-1,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,0 1 1,33 13 17,-29-11-12,1 0 0,-1-1-1,1 0 1,0 0 0,0 0-1,0 0 1,0-1-1,11 1 1,-13-2-11,-1 0 0,1 0 1,0 0-1,0 0 0,0-1 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1-1 0,1 1 1,-1-1-1,0 0 0,1 0 0,-1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 0,0-1 1,0 0-1,-1 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,-1 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 0,-3-7 0,4 9 6,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,-1 1 1,1 0-1,0-1 0,0 1 1,0 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 0,-1-1 1,1 1-1,0 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 1 1,-1-1-1,1 0 1,-13 31-58,-1 45 80,6 16 14,0 8-1033,-3-35-4161,2-25-2826</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3299.11">363 2771 9716,'0'0'5523,"-17"15"-3866,-56 50-593,69-61-1008,1-1-1,0 1 0,0 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,0 1 1,0-1-1,1 1 0,-1-1 1,1 1-1,0 0 0,0-1 1,1 1-1,-1 0 0,1 0 1,0-1-1,0 1 1,1 0-1,0 6 0,1 11 67,-2-18-106,0-1 1,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,4 2 0,9 5 19,-1 0-1,2-2 1,18 7 0,20 10 300,-55-24-330,0 0-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1 0-1,-13 9 133,-19 1-545,29-10 147,1-1-115,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0-1 1,0 1 0,0-1-1,0 1 1,-3-2 0,-4-16-5492</inkml:trace>
@@ -6950,7 +8218,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4992.54">261 3800 14391,'0'0'8974,"-11"-2"-8747,1 1-199,-15-4-48,59 3-4,-5 1 90,-12-1-53,-1 2 0,1 0 0,32 6 0,-46-6-15,0 0-1,0 1 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 1-1,-1-1 0,1 1 1,-1 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,-1 0 0,1 1 1,0-1-1,0 1 1,-1 0-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,1 6 0,-1 3 11,0 0-1,-1 1 0,0-1 0,-1 0 1,-1 1-1,0-1 0,0 0 0,-5 12 0,-6 14 60,-21 41 0,-8 25-3782,33-79-1743</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6000.45">1915 167 5523,'0'0'11122,"0"-13"-9889,-2-10-844,-1-28 3944,3 67-4256,0 226-8,0-240-192,0 1 0,0-1 0,0 0-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 0-1,3 2 1,-2-2-382,0-1 1,0 1-1,0-1 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,5 0 1,19 0-7900</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6401.67">2273 41 9636,'0'0'9197,"-15"-7"-8440,-43-23-271,56 30-474,1-1 0,0 0 0,0 1 0,-1 0 0,1-1 1,0 1-1,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1 0 0,1-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 1,1 2-1,-2 5 1,0-1 1,1 0 0,0 0-1,0 1 1,0 7 0,2-13-34,-1 0 0,0-1 0,0 1-1,1 0 1,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,1-1 1,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1-1,1 1 1,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,2 0 0,0 0-98,0 1 0,0-2-1,1 1 1,-1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0-1,4-3 1,7-9-554,2 1 1543,-16 14-812,0 1 1,0-1-1,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 1,0-1-1,0 1 0,-1 2 0,-1 50 397,1-32-433,0 0 1,1 0-1,6 41 0,6-38-1575,5-10-2816</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8430.87">686 568 4994,'0'0'8508,"19"-1"-5266,9-7-1890,-1 0 0,49-23 0,-45 17-991,51-16 0,-33 16-190,0-3 1,49-25 0,-67 30-141,43-12 1,23-10 27,207-72 139,-278 93 814,-19 6-1265,-15 7-3387,-18 7-2377,-9 5-4177</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8430.85">686 568 4994,'0'0'8508,"19"-1"-5266,9-7-1890,-1 0 0,49-23 0,-45 17-991,51-16 0,-33 16-190,0-3 1,49-25 0,-67 30-141,43-12 1,23-10 27,207-72 139,-278 93 814,-19 6-1265,-15 7-3387,-18 7-2377,-9 5-4177</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10025.82">721 644 1809,'0'0'3903,"-4"-19"-2295,4 9 7327,18 9-8419,0 1 1,-1 1-1,1 1 0,-1 1 0,1 0 0,19 7 0,18 7-268,1-2 0,0-3 0,102 10 0,-109-18-164,238 12 363,-24-13 754,-262-3-1036,25 0 363,-25 0-98,-4 2-1289,0 0 0,0 0 0,0-1 0,0 1 0,-1-1-1,1 0 1,0 1 0,-7 0 0,-4 1-5520</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11541.94">2143 659 5731,'0'0'8678,"5"-19"-5532,-3 25-3005,-1 1 1,1 0 0,-1 0-1,0 0 1,-1 0-1,0 0 1,0 0 0,-2 14-1,1 6 71,1 157-130</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12101.17">2415 667 3298,'0'0'11925,"0"-8"-11010,0 5-905,1 1 48,-1 1-1,0-1 0,0 0 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,1-1 0,-1 1 1,0-1-1,1 1 0,-1 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,-1 0 0,1 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1 0 0,-1-1 0,1 1 1,-3 0-1,-6-1-25,0 1 0,0-1 1,1 2-1,-1 0 0,0 0 1,1 0-1,-1 1 0,-15 6 1,22-7-28,0 1 0,-1 0 1,1 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 1-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 1 0,1-1 1,0 0-1,0 1 1,0-1-1,0 1 1,1 0-1,-1-1 0,1 1 1,1 6-1,-2-8-6,1-1 0,0 1 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1 0,1 1 0,-1 0-1,0-1 1,1 1 0,0 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 1 0,3 0 0,1 0-16,0-1 0,0-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,0-1 1,5 0-1,-5 0-12,-1 1 0,0-1 0,0 0 0,1-1 0,-1 1 1,0-1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 0 0,1 1 1,-1-1-1,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 1,0 0-1,-1 0 0,1 0 0,-1-1 0,0 1 0,1-5 0,-1 7 273,3 9-185,1 12 52,-1 147 2274,-5-109-3468</inkml:trace>
@@ -6994,7 +8262,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4380.76">310 3203 5603,'0'0'12677,"-2"-13"-7536,-4 13-5121,1 0-1,-1 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,0 0-1,0 0 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 1,1 1-1,0 0 0,-1-1 1,2 1-1,-1 1 1,0-1-1,1 0 0,-1 1 1,1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,-4 12-1,4-8-21,-1 1 0,1 0-1,0 0 1,1 0-1,0 0 1,1 1-1,0-1 1,0 0 0,4 18-1,-3-25-3,1-1 1,-1 1-1,1-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0-1 0,1 1 0,-1 0 1,0-1-1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 1,-1-1-1,1 1 0,4-1 0,9 1-202,0 0 0,28-4 0,-11-4-345,-32 6 537,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,0 1 1,-1-1-1,1 0 1,-1 0-1,0-1 1,1 1 0,-1 0-1,0 0 1,1-2-1,-7 2 8,0 0 0,-1 0 0,1 1 0,0 0 0,0 0 0,-7 1 0,7-1-28,1 1-1,0 0 1,0 0-1,-1 1 0,1-1 1,0 1-1,1 0 1,-8 4-1,-20 16-4041,14-11-119</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5302.37">1407 68 11877,'0'0'9034,"0"-5"-8098,0 3-139,0 10-288,-9 162-102,8-158-658,-5 37-1319,10-22-6739,4-20 129</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5735.5">1667 81 4690,'0'0'15287,"-6"-13"-14564,-20-39-141,24 50-558,1 1 1,-1 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0 0 1,0-1-1,0 1 1,1 0 0,-1 0-1,0 0 1,0 1-1,-2 1 1,-2 5-20,0-1 0,0 1 1,1 0-1,0 1 0,0-1 1,-3 10-1,6-14-5,0 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,0 1 0,0-1 0,1 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,1 1 0,-1-1 0,1 0 0,1 6-1,-1-9-3,1 1 0,-1-1-1,0 1 1,1-1-1,-1 0 1,0 0 0,1 1-1,0-1 1,-1 0-1,1-1 1,-1 1 0,1 0-1,0 0 1,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,0 1-1,0 0 1,-1-1 0,1 0-1,3-1 1,2 0-15,0 0 0,-1-1 0,1 0 0,-1-1 0,0 1 0,11-9 0,-3-4 23,-1 2 2,-13 15-7,1-1 1,0 0 0,0 0-1,-1 1 1,1-1-1,0 0 1,-1 1-1,1-1 1,-1 1-1,1-1 1,0 1 0,-1-1-1,1 1 1,-1-1-1,1 1 1,-1 0-1,0-1 1,1 1-1,-1 0 1,1-1 0,-1 1-1,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 1,0 0-1,24 57-104,10 27 159,-12-29-3263,-14-28-2497,-6-3-4598</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7437.93">1183 195 4018,'0'0'12475,"-8"6"-5243,-28 20-7231,-149 166 257,114-116-143,11-2-51,46-55-25,0-1 0,-2 0-1,0-1 1,0 0 0,-22 15-1,-3 10 44,6-6-30,22-22 3,18-7 67,32-7 134,-22 0-215,481-11 234,-303 11 1945,-179-4-2633,-10 2-1501,-10 0-988,-10 2-4112</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7437.92">1183 195 4018,'0'0'12475,"-8"6"-5243,-28 20-7231,-149 166 257,114-116-143,11-2-51,46-55-25,0-1 0,-2 0-1,0-1 1,0 0 0,-22 15-1,-3 10 44,6-6-30,22-22 3,18-7 67,32-7 134,-22 0-215,481-11 234,-303 11 1945,-179-4-2633,-10 2-1501,-10 0-988,-10 2-4112</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13191.8">1354 804 3522,'0'0'10082,"-11"5"-904,-37 16-9262,-91 73 200,92-59-47,-70 39 0,-52 26 62,59-33 231,62-36-230,-45 38 0,92-68-126,-21 12 303,3-1 365,20-11-667,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0 0-1,-1-1 1,1 1-1,0-1 1,0 1-1,-1-1 0,1 0 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,1-1-1,69 6 70,118-6 0,-160-1-73,230-27-38,-199 20 32,1 3 212,0 3 0,63 6 0,87-5 349,-207 1-525,1-1 0,-1 1 0,0 0 0,1-1 0,-1 0 0,0 0 0,7-5 0,-8 5-32,0 0 1,0 0 0,0 0-1,1 1 1,-1-1 0,0 1-1,1 0 1,-1 0-1,7-1 1,-10 2-111,-10 9-6171,-7 3 576</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14689.34">1488 1351 5202,'0'0'9058,"-5"-1"-4093,-27 5-4285,-2 12-198,0 1 0,-46 32 0,-25 13-114,53-35-322,-352 157 647,398-182-672,-43 17 862,28-8-141,213-9-618,209-5-104,-363 0 1,64-15 0,-69 10 19,-1 2 1,58-2-1,36-3-2,-126 11-377,-7 0-7553,-12 0-3300</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16176.08">1541 1746 4514,'0'0'8983,"-10"4"-8188,-152 74 3991,-85 72-3084,189-111-1404,-1-3 0,-2-2 1,-81 32-1,113-55-212,1 1 0,0 1 0,0 2 0,1 0 0,1 2 1,-37 31-1,54-36 630,26-14-83,-9 0-806,40-5 192,1 2 0,-1 2-1,51 5 1,-31-2-51,28 2 25,-1-5 0,180-29 0,-87-14 684,-169 43-592,0 2 0,0 0 0,28 3 0,1 0-4090</inkml:trace>
@@ -7116,14 +8384,14 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">78 777 4834,'0'0'7532,"1"-7"-6924,5-33 7373,-5 33-7929,3-52 369,-6 59-423,1 0-1,-1 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 1,-1 1-1,-2 7 51,0-1-1,1 1 1,0 0 0,0 0-1,1 0 1,0 1 0,0-1-1,0 11 1,-6 83 523,4-31 75,3-12 103,3-52-298,-1-39-298,0-3-148,1 0-1,1 0 1,9-39 0,-9 65-17,0-1 0,0 0 1,1 0-1,0 1 0,1 0 0,0 0 1,0 0-1,1 0 0,0 0 1,0 1-1,0 0 0,1 0 0,1 0 1,-1 1-1,1 0 0,0 0 0,9-6 1,-14 11 11,-1 1 0,0-1 1,1 0-1,-1 0 0,0 1 0,1-1 1,-1 0-1,1 1 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,0 1 0,2 0 1,-3 0-13,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 1,0 1-1,0 1 0,1 2-10,-1 0-1,0 0 1,-1 1-1,1-1 1,-1 0-1,0 0 1,0 0-1,-1 0 1,0 0-1,0 0 1,0-1-1,-5 10 1,-3 0-77,-1-1 0,0 0 0,-1 0 0,0-1 0,-1-1 0,0 0 0,-1-1 0,0 0 0,-26 12 0,43-22-16,-1-1 0,0 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 1 0,-1-1-1,0 0 1,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,3 2 0,2 1 162,-1 0-1,0 1 1,0-1-1,-1 2 1,1-1-1,4 7 1,6 8 675,-2 0 0,22 42 1,-35-60-707,0-1 0,0 1 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 1,0 0-1,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0 0-1,-1-1 0,1 1 1,0-1-1,-1 1 0,1-1 1,0 0-1,2 0 0,0 0 2,-1-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,-1 0 0,5-4 0,3-4-10,-1 0 0,0-1 0,0 0 0,-1-1 0,11-21 0,-16 25-26,0-1 1,0 0-1,-1 1 1,0-1-1,0 0 1,-1 0-1,0 0 1,-1-10-1,-33 20-622,30 1 650,-1 0 0,1 0 0,0 1 0,0-1 1,0 1-1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 1,-1 5-1,0-3-35,0 1 0,1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,0 1 0,0 0 0,0-1-1,1 1 1,2 9 0,-3-14 22,0 0 0,1 0 0,0-1-1,-1 1 1,1 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,2-1-1,0 0 23,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,3-3 0,-2 0-2,-1 1-1,1-1 0,-1 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,0-1 1,0 1-1,0-1 0,0-7 0,-2 13 96,37 46-165,-35-45 45,-1 0 1,1 0-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 0,0 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,0-2 1,2-2-7,0-1 1,-1 0 0,0 0 0,0 0 0,-1-1-1,3-8 1,8-17 41,-9 105-303,-4-70 307,-1 0-21,1-1 1,0 1 0,0-1-1,0 1 1,0 0 0,1-1 0,-1 1-1,1-1 1,0 1 0,1 4-1,-1-6-12,1 0-1,-1 0 0,1 0 1,-1 0-1,0-1 0,1 1 1,0 0-1,-1-1 0,1 1 0,-1-1 1,1 0-1,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 1,1 0-1,2-1 0,1 0 21,-1 0-1,0 0 1,0-1-1,0 0 1,-1 1-1,1-2 1,0 1-1,-1 0 0,1-1 1,-1 1-1,0-1 1,0 0-1,0 0 1,4-5-1,22-18-55,-27 26 28,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1 0,0 1-1,1 0 1,-1 0-1,0-1 1,0 1 0,1 0-1,-1 0 1,0 0-1,1 2 1,0-1 16,1 0 0,-1 0 0,0-1 0,0 1 0,1-1-1,-1 1 1,1-1 0,-1 0 0,1 0 0,-1 0 0,6 1 0,-6-2 3,0 0-1,0 0 1,0 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0-1 0,2-1-1,-1-1 17,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,2-9 1,-2 7-26,4-13-207,-11 29-356,-8 38 364,12-5 270,3 46 0,1-8-15,-3-76-60,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,-1 0 0,1 0 0,0 0 1,-1 1-1,0-2 0,1 1 0,-1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-6 4 0,7-10-9,0 0 0,1 0-1,0-1 1,-1 1 0,1 0-1,1 0 1,-1 0-1,1 0 1,0 0 0,1-5-1,8-10-233,0 0 0,2 1-1,0 0 1,26-28-1,4-6-988,-26 30 691,31-46-972,-43 62 1565,-1 0-1,0 1 1,-1-1-1,1 0 1,-1-1-1,0 1 1,0 0-1,-1-1 0,1-9 1,-2 15 502,-1 1-510,-1 1 1,0 0 0,1 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 1 0,1-1-1,0 0 1,0 1 0,1-1-1,-1 1 1,0-1 0,0 1-1,0 2 1,-13 35 260,12-36-255,-1 8 84,1-1 1,0 1-1,0 0 1,1 0-1,0 0 0,1 0 1,3 22-1,-3-31-185,1-1 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,1 0 0,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,2-1 0,2 1-652,-1 0 0,1-1-1,0 0 1,-1 0 0,1 0 0,-1-1-1,10-3 1,6-12-9610</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1368.29">1247 76 4114,'0'0'8185,"-11"-3"320,17 2-8381,0-1-1,1 1 0,-1 0 0,0 0 1,0 1-1,0 0 0,10 0 1,14 0 276,377-31 1191,-150 17-1458,-83 0-11,-146 11-92,-15 2 661,5-1-3211,-29 1-2521,-11 1 471,-9 0-3943</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2465.24">1823 71 8580,'0'0'7940,"0"-15"-3992,8 386-504,-12-295-3119,-3 0-1,-22 96 1,20-122-232,3-7 13,0 59 0,-2 24 43,5-108-133,-7 28-11,10-46-3,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 0 0,-1 1 1,1-1-1,0 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,-2 1-1,-22-24-107,-12-36-174,24 39 239,8 15 24,0 1 1,1-1-1,0 0 1,0 0 0,0 0-1,1-1 1,0 1-1,-2-12 1,4 18-52,0 2-103,0 0 171,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,1 0 0,-1-1-1,2 2 1,27 28 61,-27-27-57,3 1 26,-2 0-40,2 1-1,-1-2 1,0 1-1,1-1 0,0 0 1,7 4-1,-11-7 11,1 0 1,-1 0-1,0-1 0,1 1 1,-1-1-1,1 0 0,-1 1 1,1-1-1,-1 0 0,0-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0-1 0,1 0 1,-1 1-1,0-1 0,0 0 1,1-1-1,-1 1 0,3-3 1,24-20-162,0-2 1,-3-1-1,0 0 0,-1-2 1,33-53-1,-19 29-3111,-27 34-1504,-10 6-2290</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2465.23">1823 71 8580,'0'0'7940,"0"-15"-3992,8 386-504,-12-295-3119,-3 0-1,-22 96 1,20-122-232,3-7 13,0 59 0,-2 24 43,5-108-133,-7 28-11,10-46-3,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 0 0,-1 1 1,1-1-1,0 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,-2 1-1,-22-24-107,-12-36-174,24 39 239,8 15 24,0 1 1,1-1-1,0 0 1,0 0 0,0 0-1,1-1 1,0 1-1,-2-12 1,4 18-52,0 2-103,0 0 171,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,1 0 0,-1-1-1,2 2 1,27 28 61,-27-27-57,3 1 26,-2 0-40,2 1-1,-1-2 1,0 1-1,1-1 0,0 0 1,7 4-1,-11-7 11,1 0 1,-1 0-1,0-1 0,1 1 1,-1-1-1,1 0 0,-1 1 1,1-1-1,-1 0 0,0-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0-1 0,1 0 1,-1 1-1,0-1 0,0 0 1,1-1-1,-1 1 0,3-3 1,24-20-162,0-2 1,-3-1-1,0 0 0,-1-2 1,33-53-1,-19 29-3111,-27 34-1504,-10 6-2290</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3233.88">1547 1505 10165,'0'0'8350,"-8"-21"-6007,4 19-2338,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 1 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 0,0 0 0,1 1 0,-1 0 1,0 0-1,1 0 0,-6 6 0,3 2-1,0-1-1,0 1 1,0 1 0,2-1-1,-1 1 1,2 0 0,-1 0-1,2 0 1,-1 0 0,2 0-1,0 1 1,0-1 0,1 1-1,1-1 1,3 22 0,-3-31-61,0 0 0,0 0 0,0-1 1,0 1-1,1 0 0,-1 0 1,1-1-1,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,6-1 1,2 1-479,0 0 0,0-1 0,0 0 0,0-1 0,0 0 0,17-4 0,-7-3-4201</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4026.4">1605 1720 5330,'0'0'9295,"0"0"-9215,0 0-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,4-9 50,-1 0 0,0 0 1,0 0-1,-1 0 0,0-1 0,-1 0 0,2-18 0,3-43 32,-7 70-66,0 12 0,0-7-94,-1 0-1,1 0 0,0 0 0,1 1 0,-1-1 0,1-1 0,0 1 0,0 0 1,2 5-1,-2-7 5,0-1 1,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1-1-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1 0,0-1 0,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0-1-1,-1 1 1,1 0 0,1-2-1,3 1 20,0-2-1,0 1 0,0-1 0,-1 0 0,1 0 1,-1 0-1,0-1 0,0 0 0,0 0 0,0 0 1,-1-1-1,0 1 0,0-1 0,6-9 0,-11 23 168,0-1 0,0 0-1,1 1 1,2 15-1,-1 2 17,-1-25-205,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 0-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,0-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,0-1 1,1 1-1,1-1 21,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 0 1,-1 0-1,1 1 1,0-2-1,4-3 0,14-35 60,-11 21-355,-13 46 198,-1-4 250,2-1 0,0 39 0,2-60-199,0 1 0,0 0-1,0-1 1,1 1 0,-1-1 0,0 1 0,1 0-1,-1-1 1,1 1 0,-1-1 0,1 1-1,-1-1 1,0 1 0,1-1 0,0 0 0,-1 1-1,1-1 1,-1 0 0,1 1 0,0-1-1,-1 0 1,1 1 0,-1-1 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0-1 0,2 1-607,-1 0-1,1-1 1,-1 1 0,1-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1-1 0,2 0-1,12-13-7849</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4211.26">1966 1375 10949,'0'0'11557,"0"-23"-11589,0 25-720,0 10-1233,4 2-3185,-4 0-4467</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4456.69">1979 1375 272,'54'4'8407,"-43"-3"-3578,-19 125 2886,-22 62-6618,27-174-1004,1-4-481,-1 9-879,-1-6-4036,1-8-532</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4645.73">1979 1641 8948,'0'0'8548,"94"-54"-8548,-69 50-1393,-9-1-3505</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4645.72">1979 1641 8948,'0'0'8548,"94"-54"-8548,-69 50-1393,-9-1-3505</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4998.86">2114 1622 9652,'0'0'6579,"25"-5"-5167,-23 3-1331,0 1 0,1-1 1,-1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 0 0,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,-1 0 1,0 0-1,1 1 0,-2-5 1,1 6 382,-2 2-425,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0 0 0,1 0 1,-1-1-1,1 1 1,-1 0-1,1 1 0,0-1 1,0 0-1,-1 0 0,2 0 1,-1 1-1,0-1 1,0 4-1,-3 4 117,2-1 0,-1 0 1,1 0-1,-1 19 0,3-26-329,-1-1 0,1 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,0 0 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 1,3-1-1,13 1-6380</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5157.77">2114 1609 1825</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5157.76">2114 1609 1825</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5404.59">2114 1622 1825,'103'-26'7417,"-82"18"-4973,-18 3 3286,14 24-3585,-14-10-1868,-1-1 1,0 1-1,0 0 1,-1 14-1,0-20-238,-1 0-1,1-1 0,-1 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,0-1-1,-1 1 0,0-1 1,1 1-1,-1 0 1,0-1-1,0 0 1,-1 1-1,1-1 0,0 0 1,-1 1-1,-2 2 1,4-5 556,8-27-708,8 3-96,33-38 0,-56 147 1222,0-66-933,-1 4-614,6-10-2667</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5568.05">2396 1473 11477,'0'0'7604,"29"-21"-10630,-17 33-159,5-3-4947</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5918.83">2668 1524 7395,'0'0'11608,"-14"13"-10861,-46 42-280,56-51-420,0 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,0 1 0,0 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,1 1 1,0-1 0,0 0-1,0 1 1,1-1-1,0 8 1,21-16 97,-16 0-174,0 0-1,0-1 1,-1 1-1,1-1 1,-1 0-1,0-1 1,4-5 0,-4 5 9,1 0 0,-1 0 0,1 1 0,0 0 1,10-7-1,-15 11 38,1 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1 1 0,3 34 497,-2-30-409,-1 7-474,5 36 1674,2-30-2866,-6-18 1299,-1-1 0,1 1 0,-1 0 0,1-1-1,-1 1 1,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1-1,1 0 1,0 1 0,-1-1 0,1 0 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 0 0,1 0 0</inkml:trace>
@@ -7131,7 +8399,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7583.64">3751 157 9604,'0'0'8775,"7"15"-7820,14 27-218,-1 1 1,-3 0-1,-1 2 0,-2 0 0,8 49 1,9 26-258,-23-89-443,-1 0-1,-1 0 1,-2 1 0,0 54 0,-25-102 174,8-2-210,1-1 1,1 0-1,1 0 1,-8-21 0,20 45-54,5 14 75,1 0-1,19 33 1,-26-49-36,1 0 0,0 0 0,-1-1 0,1 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,0 0 1,1 0-1,0-1 0,-1 1 0,1 0 0,0-1 0,5 3 1,-6-5 22,0 1 1,-1-1 0,1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1-1-1,1 1 1,-1-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 0 0,0 0-1,0 1 1,0-1 0,0-2 0,8-13-161,48-77 273,-49 83-1049,1 0 0,0 1 1,14-12-1,-12 15-3060,-6 5-1158</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8489.31">4269 1018 9044,'0'0'8153,"-2"-12"-7400,-4-42-143,6 51-540,-1 1 0,1-1-1,-1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,-4 1-1,1 0-38,0 0 0,-1 0 0,1 0 0,0 1 0,0 0 0,0 0 1,0 1-1,0-1 0,1 1 0,-1 1 0,1-1 0,-8 6 0,11-7-34,0 0-1,0 1 1,1-1 0,-1 0-1,1 0 1,-1 1 0,1-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1-1,1 0 1,-1 0 0,1 0-1,0-1 1,0 1 0,0 0-1,0 0 1,1-1 0,-1 1-1,1 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,1-1-1,-1 1 1,0-1 0,3 4 0,5 6-33,1 0 1,0 0 0,1-1-1,20 16 1,0 1 6,-28-25 28,1 0-12,0 1 0,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0 0-1,0 0 1,0 0 0,-1 0 0,2 9 0,-8-13 30,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 0 1,-5-1-1,8 1 30,-9 0 51,0 0 0,0 0-1,0-1 1,0-1 0,0 0-1,0 0 1,1-1 0,-1-1 0,1 0-1,-16-8 1,25 12-140,1 0-1,-1 0 1,0 0-1,1-1 1,-1 1-1,1 0 1,-1-1-1,0 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,1 0-1,-1-1 1,1 0-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,-1 0-1,1-1 1,1 1-1,35-19-4333,-3 8 983,5 2-1759</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8843.25">4404 1035 2769,'0'0'14009,"0"4"-13568,0 6 170,-1-1-280,1 0 0,1 0 0,-1-1 0,1 1 0,1 0 0,4 13 0,-6-19-314,1-1 0,1 0 0,-1-1 0,0 1 0,0 0 1,1 0-1,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1-1 0,3 0 0,-2 0 29,-1 0 1,1-1-1,0 1 0,-1 0 1,0-1-1,1 0 1,-1 1-1,0-1 0,0 0 1,0 0-1,0 0 1,0-1-1,-1 1 0,1 0 1,-1-1-1,1 1 1,-1-1-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0-5 0,0 2 146,1-1-1,-1 0 1,0 0-1,-1 0 0,0 0 1,0 1-1,0-1 0,-3-12 1,3 20-216,0-1 0,0 0-1,0 0 1,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1-1,-5 19-4649,5-3 125,0-2-3084</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9405.86">4670 1074 5442,'0'0'14148,"9"69"-11821,0-37-1763,-8-32-554,-1 1 1,0-1-1,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 0,1 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 1,0 0-1,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1-1 1,0 1-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,20-26 100,-17 22-92,0 0 0,0 0-1,0 0 1,0 0 0,1 1 0,8-7 0,-12 12-27,0-1-1,0 1 1,1 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 2 0,0-3 5,4 11 57,0 0-1,1-1 1,0 0 0,0 0 0,7 9 0,-11-17-49,0-1 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,1-1-1,-1 1 1,1 0 0,-1 0-1,1-1 1,-1 1-1,1-1 1,-1 1 0,1-1-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,0-1 0,-1 1-1,1 0 1,-1-1-1,1 0 1,-1 1 0,1-1-1,-1 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,2-2-1,45-57 194,-47 59-161,0 13-39,1 0 0,0-1 0,1 1 0,0-1 0,1 1 0,7 14 1,-10-23-273,1-1 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 0,0 0 1,5 2-1,15 6-6339,1-9-3616</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9405.84">4670 1074 5442,'0'0'14148,"9"69"-11821,0-37-1763,-8-32-554,-1 1 1,0-1-1,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 0,1 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 1,0 0-1,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1-1 1,0 1-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,20-26 100,-17 22-92,0 0 0,0 0-1,0 0 1,0 0 0,1 1 0,8-7 0,-12 12-27,0-1-1,0 1 1,1 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 2 0,0-3 5,4 11 57,0 0-1,1-1 1,0 0 0,0 0 0,7 9 0,-11-17-49,0-1 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,1-1-1,-1 1 1,1 0 0,-1 0-1,1-1 1,-1 1-1,1-1 1,-1 1 0,1-1-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,0-1 0,-1 1-1,1 0 1,-1-1-1,1 0 1,-1 1 0,1-1-1,-1 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,2-2-1,45-57 194,-47 59-161,0 13-39,1 0 0,0-1 0,1 1 0,0-1 0,1 1 0,7 14 1,-10-23-273,1-1 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 0,0 0 1,5 2-1,15 6-6339,1-9-3616</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10849.91">5146 1108 10837,'0'0'9954,"6"-3"-9629,-4 2-281,0 1 0,0-1-1,-1 1 1,1-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 1 0,-1 0-1,1-1 1,0 1-1,0 0 1,2 1 0,0 2 77,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,3 9 0,-1-2-6,0 0-1,-1 0 0,0 1 1,-1-1-1,0 1 1,-1 0-1,1 16 0,-3-28 89,1-36 752,0 27-936,0 1 0,1-1 0,0 1 0,1-1 0,-1 1 0,2 0 0,4-10 0,-6 15-73,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,6 0 1,12 2-2320,-1 1 0,1 1 0,-1 1 0,22 7 0,31 6-3215,-21-13 5776,-51-5 239,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,-1-2 0,-4-31 3471,4 31-3667,-1 0-1,1 1 1,-1-1 0,0 0 0,1 1-1,-1 0 1,0-1 0,-1 1 0,1 0-1,0 0 1,0 0 0,-1 0 0,1 1-1,-1-1 1,0 1 0,-5-3 0,6 3-203,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 1,1 0-1,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 1,1 0-1,-2 3 0,-1 1-20,0 0 0,1 1 0,0-1 1,0 1-1,1 0 0,-1 0 0,2 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,1 0 1,0 1-1,0-1 0,1 0 0,2 12 0,-2-18-7,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,1 0 1,1 0-1,1-1 3,0 0 0,-1 0 1,1 0-1,0 0 1,-1-1-1,1 0 1,-1 1-1,0-1 0,6-7 1,-1-1 22,-5 8-14,0 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-7 0,-2 10 80,1 34-142,-1-31 48,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 1,1-1-1,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,1 1 0,-1-1 0,4-1 0,-1 1-17,0-1-1,-1 0 1,1 0-1,0 0 1,0-1 0,-1 0-1,1 0 1,-1 0-1,0 0 1,1-1 0,-1 1-1,0-1 1,-1 0-1,6-5 1,2-5 36,0 1 0,17-28 0,-16 98 235,-12-56-245,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0 0,-1-1-1,1 1 1,0 0-1,0 0 1,3 3-1,-4-5-2,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1-1,0-1 1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,1-1 0,5-2 17,0 0 0,-1 0 1,1-1-1,-1-1 0,0 1 0,7-6 0,-7 5-15,1-1 0,-1 2-1,1-1 1,1 1 0,11-6-1,-18 10-31,2 1 17,0 0 0,0 0 0,-1 0 1,1 1-1,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 0,4 4 1,20 13 37,-22-18-38,0 1 0,0-1 0,0 1 0,0-1 1,0-1-1,0 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,1 0 1,-1-1-1,0 0 0,0 1 0,0-1 0,0-1 0,1 1 0,3-2 1,-5 1 17,-1-1 1,1 1 0,-1 0 0,0-1-1,0 1 1,1-1 0,-1 1 0,-1-1-1,1 0 1,0 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,-1 1-1,1 0 1,-1 0 0,1-1 0,-1 1-1,0 0 1,0-5 0,-9 65-47,12 10 69,19 110 0,-21-174-33,2 19-50,0 0 0,-1 0 0,-2 32-1,0-48 40,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-3 4 0,3-7 10,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,-1 1-1,-4-1 1,6 0 12,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 1,1-1-1,-1 0 0,1 0 1,-2-1-1,-6-29 64,7 22-70,1 0-1,1 0 1,-1 1 0,1-1 0,4-13-1,6-5-52,1 1-1,1 1 1,1 0-1,35-46 1,2-3-462,-31 42 372,34-61-558,-50 84 815,0-1 0,0 0 1,-1 0-1,0 0 1,-1 0-1,0 0 0,0 0 1,-1-12-1,-18 28 505,11-1-586,0 1 0,0 0 0,1 1 0,-1-1 0,1 1-1,1 0 1,-1 0 0,1 1 0,1-1 0,-1 1 0,1 0 0,1 0-1,-1 0 1,2 0 0,-3 17 0,3-21-151,0 1-1,1-1 1,-1 1 0,1-1-1,0 1 1,0 0 0,1-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,1 1 0,-1-1-1,1 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,0-1-1,0 0 1,0 1 0,0-1-1,1 0 1,0-1 0,-1 1-1,1 0 1,0-1 0,5 2-1,31 5-6000</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11034.31">6624 1126 23323,'0'0'3601</inkml:trace>
 </inkml:ink>
@@ -7324,6 +8592,296 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:47:19.531"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">184 70 7603,'0'0'8098,"-13"7"-7677,2-1-325,6-3-44,-1-1 1,1 1-1,0 1 0,0-1 0,0 1 0,0 0 1,0 0-1,1 0 0,0 1 0,0 0 0,0 0 1,0 0-1,-3 7 0,-61 107 1154,103-156-918,-12 3-342,28-53 0,10-14 469,-61 101-372,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0 0,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,1 0 1,-1 1-1,7 16 370,1 25-269,-4-14-316,-2 1 1,0 0 0,-2 0 0,-1 0 0,-2 0 0,-8 43 0,10-67-417,0-4 228,1 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,-1 2 0,-6-1-6478</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="911.2">1 201 7123,'0'0'9730,"12"-7"-9316,4 1-663,1-1 1,0 2-1,0 0 1,0 1-1,0 1 1,33-2-1,-15 4-838,43-3-7292,-30-7 9369,-47 10-704,0 1-1,0 0 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,0-1-1,0 1 1,0-1 0,-1 1-1,1-1 1,0 1 0,0-1-1,-1 1 1,2 1 0,-1 0-21,1 0 0,0 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 3 0,1 1-70,-1 0 0,-1-1 0,1 1 1,-1 0-1,0 0 0,0-1 1,-1 1-1,-2 8 0,2-12-72,-1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,-1 0-1,1-1 1,-1 1 0,1-1 0,-1 1-1,-4 2 1,6-5 90,0 0-137,0-1-1,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1-1 0,1 1 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 0 0,1-3 1,1-2-178,0 1-1,0-1 1,0 0 0,0 1 0,1-1 0,0 1 0,0-1-1,1 1 1,-1 0 0,1 0 0,0 0 0,1 0 0,-1 1 0,1-1-1,0 1 1,0 0 0,0 0 0,1 1 0,4-4 0,4-3-1165,1 1 0,0 1 0,0 0 0,1 1 0,26-8 0,-41 15 1209,1-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 1,0 1-1,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 1,0 1-1,13 33 2543,-12-27-1756,0 1 0,-1-1 0,-1 1 0,0-1 0,0 1 0,-2 14 0,2-21-639,-1-1 1,1 1 0,-1 0 0,1-1 0,-1 1-1,0-1 1,0 0 0,0 1 0,1-1 0,-1 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1-1 0,0 1-1,-1 0 1,1-1 0,-1 1 0,0-1 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,-2 0 0,3-1-78,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,1-2 0,0-1-149,0 1-1,1 0 0,-1 0 1,1 0-1,0 0 0,0 1 1,0-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,6-1 0,58-17-1438,-66 20 1543,83-14-535,-28 11-3404,-59 2 6788,0 1-2683,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 1 0,0 0 1,0 0-1,1 0 0,-6 3 1,5-2-131,-1 0 43,0 0-1,1 0 1,-1 0 0,1 0-1,0 1 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0 0,1 0-1,0 0 1,-1 1-1,1-1 1,-3 7-1,26-10-198,-7-1-106,-1 0-1,0-1 1,0-1-1,0 0 1,-1-1-1,16-7 0,6-6-3244,-6-2-3435,-19 9 3257</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1314.62">828 72 144,'0'0'17952,"0"-6"-16989,0 4-928,0 1-1,0-1 0,0 0 0,0 1 0,0-1 1,1 1-1,-1-1 0,0 0 0,1 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,-1 0 0,1-1 0,0 1 1,0 0-1,0-1 0,2 0 0,-1 0 27,0 1 0,1 0 0,-1 0 0,0 1 0,0-1-1,1 0 1,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 1 0,-1-1 0,3 2 0,-3-2-40,-1 1 0,1 0-1,-1 0 1,0 1 0,1-1 0,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1-1,0 1 1,0 0 0,1 0 0,-1-1 0,0 1 0,-1 3-1,-3 50 269,3-49-267,-1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-6 5 0,-48 41 245,38-35 22,18-15-209,35-2-95,-1-2 1,1-1-1,-1-2 1,0-1-1,-1-1 1,42-17-1,-67 21-1375,-6 0-3060</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2057.88">1516 57 9108,'0'0'7444,"-7"15"-7204,-107 198 1662,258-439-1043,-140 219-1069,13-15 990,-17 22-764,1-1 1,-1 1-1,0 0 0,1 0 1,-1 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 1 1,1-1-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 1-1,0-1 0,1 0 1,-1 1-1,0-1 0,0 0 1,0 1-1,1-1 0,-1 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,-1 0-1,7 38 547,-2 0-1,-1 51 1,-3-17-2324,-1-7-5425</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2208.69">1393 227 10261,'0'0'8948,"126"-31"-9044,-81 31-1345,-3 0-2321,-8 0-2593</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3077.42">1705 177 8020,'0'0'11111,"5"3"-10606,36 34 315,-39-36-792,-1 1-1,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-2 4 0,0-5 2,0 1 0,0-1-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-4-1-1,3 1 39,0 0 0,0 0 1,0-1-1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-5-3 0,6 4-77,-1-1 0,1 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,1 0 0,-1 0 1,0 0-1,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,1 1 1,-1-1-1,1 0 0,-1 1 0,1-1 0,0 1 1,-1-1-1,1 1 0,0 0 0,0 0 0,0 0 0,3-1 1,9-5-1150,1 0 1,0 1 0,1 1 0,24-5-1,-35 9 516,21-6-1397,3-1-6263,-10 4 5901,-2 2 5787,-1 1 7421,-14 4-10522,0 0 1,-1 1 0,1-1-1,0 1 1,-1 0-1,0-1 1,0 1-1,0 0 1,0 5-1,0-7-69,0 4-104,0 0 0,-1-1 1,1 1-1,-1 0 0,0-1 0,-1 1 1,1 0-1,-4 10 0,4-14-81,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-3 0 0,6-29 730,0 25-868,0 0-1,1 0 1,-1 0 0,1 1 0,0-1 0,0 0 0,1 1-1,-1-1 1,1 1 0,0 0 0,-1 0 0,1 0-1,1 0 1,-1 1 0,0-1 0,1 1 0,-1 0-1,1 0 1,7-3 0,6-4-1212,1 2 1,36-10-1,-22 8-1173,1 2 0,0 1 0,55-1 3705,-97 7 3252,-25 0-2370,25 0-1810,0 0-1,0 1 1,0 1 0,1-1 0,-1 2 0,0-1-1,1 1 1,-1 0 0,1 1 0,0 0 0,0 0-1,0 1 1,1 0 0,-1 0 0,-12 13 0,20-18-285,-1 0 0,1 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,0 0 0,0 1 1,-1-1-1,1 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,-1-1-1,1 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 0,1 0 1,22 3-255,25-8-526,-29 0-336,-1 0 0,32-15 0,-12 4 512,-35 33 4555,-2 26-3436,-1-41-296,0 0-257,0-1-1,1 0 1,-1 1 0,0-1 0,0 1 0,1-1-1,-1 0 1,1 1 0,-1-1 0,1 0-1,0 0 1,-1 1 0,1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,1 1 0,-1 0-1,0-1 1,1 1 0,-1-1 0,0 1 0,1-1-1,-1 0 1,0 1 0,1-1 0,2 0 0,54-3-7563,-54 3 6587,30-8-7181</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3746.99">2492 79 3490,'0'0'5429,"-1"-3"-5311,-7-22 11308,6 18-10146,2 6-1213,1 0-1,-1 0 0,1-1 1,-1 1-1,1 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,1 1 1,-1-1-1,2 1 0,41-10-128,-37 9 148,71-8 2,-80 36-293,-3-18 234,-2 0-1,1 0 1,-1-1 0,-1 0-1,1 0 1,-1-1 0,-1 1-1,1-2 1,-20 12 0,-2 3 2,-41 30 89,116-49-355,-32-2 157,4-1 30,0 1-1,-1 1 0,1 0 0,0 1 0,-1 1 1,21 6-1,-36-9 48,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 0,1 1 1,-1-1-1,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 2-1,-15 10 143,-29 3 274,-210 35 294,81-33-4446,67-12-5220</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:47:16.872"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">242 46 6851,'0'0'9071,"-4"-4"-8479,3 3-505,-1-1 168,1 1-1,-1-1 1,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1-1,1-4 1,-27 33-548,8-1 335,-13 17-2,1 1 1,2 2 0,3 0 0,-26 62-1,58-119-53,1 0 0,1 1 1,14-17-1,22-31-64,72-151-184,-116 209 258,0-1 1,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 0,1 0 1,-1-1-1,0 1 1,0-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 1 1,11 25 2,0 38 108,-15 134 92,3-198-239,-2 9-1495,-4-7-5121</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="211.44">1 148 8628,'0'0'8548,"72"20"-7924,-30-20-480,7 0-144,1-7-512,-5-3-2369,-10-1-1185,-13 6-3762</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="566.81">297 140 8196,'0'0'9356,"16"7"-8862,46 24-254,-59-30-218,-1 0 0,0 1 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,1 0 0,-1 1 1,-1-1-1,1 1 0,0 0 0,-1-1 0,1 1 1,-1-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,-1-1 0,-1 6 1,1-3 15,-1 0 0,0-1-1,0 1 1,0-1 0,0 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-6 4 0,6-6-19,0 1 18,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-7 0 0,10-4 23,0 0 0,0-1 1,0 1-1,0 0 1,1-1-1,-1 1 0,1-1 1,0 1-1,0 0 0,1-1 1,-1 1-1,2-5 0,0 0-53,0 1 0,1 0-1,0-1 1,0 1 0,0 0 0,1 0 0,1 1-1,-1-1 1,1 1 0,0 0 0,0 0-1,1 1 1,-1-1 0,1 1 0,7-4-1,4-4-45,1 2-1,0 0 0,0 0 0,29-10 0,16 2-313,-20 15-3901,-41 4 3591,-2 0 522,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1-1 0,0 1-1,0 0 1,0 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,-1 0 0,1 10-4673</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1469.98">537 148 624,'0'0'15613,"8"1"-11740,30 10-2920,-36-9-925,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 1,-1 1 0,1-1-1,0 1 1,-1-1-1,1 1 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,-1 3-1,-1 0-1,0 1 1,-1-1-1,1 0 0,-1 0 0,0 0 0,-1 0 1,1-1-1,-1 1 0,-1-1 0,1-1 1,-8 6-1,13-9-27,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,2-16-79,0 12-30,1-1 1,0 0-1,0 1 0,1 0 1,-1 0-1,1 0 0,0 0 1,1 0-1,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,7-3 0,10-6-888,2 1 0,25-10 0,-4 11-6,-37 10 839,1-1 1,-1 0-1,0 0 1,0-1-1,8-4 1438,-28 9 47,4 2-1075,-1 0-1,1 1 1,0 0-1,0 0 1,0 1 0,-7 6-1,12-9-181,0 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1 0,0 1-1,0-1 1,0 1 0,1 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 5 0,2-8-77,1 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,0-1 0,1 0-1,-1 1 1,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,1 0 0,-1-1-1,1 1 1,2-1 0,1 1-83,4-1 8,0 0 1,0 0 0,-1-1 0,1 0 0,-1-1 0,1 0 0,-1 0 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0-1 0,0 1 0,11-13 0,-15 14 2214,-9 8-1715,-12 16-457,17-18 51,0 0-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,2 4 1,-1-5-24,0 1 1,1-1-1,-1 0 1,0 0-1,1 0 0,-1 1 1,1-1-1,-1-1 1,1 1-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,0 0 1,0 0-1,0 0 1,3-1-1,8 1-282,1 0 0,-1-2 1,0 0-1,0 0 0,1-1 0,-1 0 0,-1-2 0,1 1 0,22-13 0,-29 14 205,1-1 0,-1-1-1,0 1 1,0-1 0,-1 0-1,1-1 1,-1 1 0,0-1-1,-1 0 1,1-1 0,-1 1-1,0-1 1,-1 1 0,0-1-1,0 0 1,0 0 0,-1-1-1,3-14 1,4 30 3041,-5-3-2935,0 1 0,0 0 0,-1 0 0,0 1 0,0-1-1,-1 0 1,0 1 0,3 13 0,-5-10 45,0 0 0,-1 0 1,0 0-1,0-1 0,-1 1 0,0 0 0,-1-1 1,0 1-1,-8 14 0,9-19-42,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-2 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,1-1 0,-1 1 0,-1-1 0,-9 1 0,15-1-38,-1-1 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,1-1-1,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1-1 0,0-16-2856,1 15 2533,4-23-5165</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1741.81">1397 3 3073,'0'0'19559,"-12"102"-18337,-38 47-595,48-145-1278,-3-3-4504</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:47:29.621"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18 57 5923,'0'0'15036,"12"-8"-14497,-5 2-470,0 1 1,1 0 0,0 0-1,0 1 1,0 0-1,0 0 1,1 1-1,-1 0 1,1 1 0,0-1-1,0 2 1,14-2-1,-18 3-24,-2 0-38,1-1 1,0 1-1,0 0 0,0 0 1,-1 1-1,1-1 0,0 1 1,5 2-1,-8-3-13,1 1-1,-1 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 1-1,0-1 1,-1 0 0,1 0 0,0 0-1,-1 1 1,1-1 0,-1 0 0,0 1-1,1-1 1,-1 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,-1 3 0,0 1 10,-1 0 1,1 0 0,-1 0-1,0-1 1,0 1 0,0-1 0,-1 1-1,1-1 1,-1 0 0,0 0 0,-1 0-1,1 0 1,-7 5 0,-60 47 102,45-37-78,14-10-23,3-3-1,0 0 0,0 0 0,1 1 0,0 0 0,0 1-1,-9 13 1,16-20-5,1-1 1,0 1-1,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,2-1 0,-3 1 0,28-1-741,54-9-1,-9-4-4570,-51 10 2529,29-6-6562</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:47:30.163"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">164 18 12742,'0'0'9842,"54"-4"-7975,-43 2-1801,9-2-14,-1 1 0,36-1 0,-57 14-146,-6 1 116,0 1 0,-1-1 0,-17 15 0,20-21-22,0 0 0,1 1 0,0-1 0,-1 1 0,2 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,1 1 0,-1 1 0,2-1 0,-1 0 0,1 1 0,0-1 0,-1 15 0,3-20 0,0-1 1,0 0-1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 1,0-1-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,2 0-1,33 18 7,-30-17-6,-1 0-1,0 0 1,-1 1 0,1 0 0,0 0 0,5 4-1,-9-6 1,-1 0 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,-1 2 0,-38 18 58,8-11-220,-49 8 1,2-9-2889,22-7-2871</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:47:27.417"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">88 91 512,'0'0'15925,"-3"-3"-14370,1 0-1092,-1 0-1,1 0 1,0-1-1,0 1 0,0-1 1,0 1-1,1-1 1,-1 0-1,1 0 1,0 0-1,0-5 1,-2-31-45,-13 76-578,5 3 21,-10 67-1,11-8-7814,7-66-554</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1755.24">1580 107 3330,'0'0'15564,"0"-14"-14009,0-57 1615,-8 88-2994,-30 150-411,24-54-4783,10-65-222</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:47:27.868"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">166 73 5074,'0'0'14276,"11"-10"-13745,39-34-157,-44 41-302,-1 0 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,10 2 0,-15-2-71,1-1-1,-1 1 1,0 0 0,1 0-1,-1 0 1,0-1 0,0 1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,-1 1 1,1-1-1,0 0 1,-1 1 0,1-1-1,-1 0 1,1 1 0,-1-1-1,0 1 1,0-1 0,0 1-1,1-1 1,-1 1 0,0-1-1,-1 1 1,1-1-1,0 0 1,0 1 0,-1 1-1,0 3 12,0-1 0,0 1-1,0-1 1,-1 1 0,1-1-1,-1 0 1,-4 7 0,-1-3 34,0-1 0,-1 0-1,1 0 1,-2 0 0,1-1 0,-19 11 0,-23 20-23,46-34 38,23-4-85,34-7-1051,76-21-1,-52 10-6006,-36 9-2018</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="670.83">176 432 11717,'0'0'11979,"-1"0"-11936,1-1 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,1-1 0,-1 1 1,0-1-1,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1 0 1,0-1-1,1 1 0,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,1 0 1,0-1-1,10-3-32,-1 0 1,1 1 0,0 0-1,0 1 1,0 0 0,1 0-1,-1 1 1,0 1 0,1 0-1,15 2 1,-26-1-12,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 2 0,-5 29 36,-2-20-25,-1 0 1,0-1 0,0 1 0,-2-2 0,1 1 0,-1-1-1,-15 11 1,-15 17 0,29-28 49,-1 4-280,12-14 214,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0-1,1 0 1,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0-1,1-1 1,49-2-26,24 0-34,-72 4 61,1-1 1,-1 1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,2 5 0,-1-5 10,-1 0 0,1 1 0,0-1 0,-1 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 1,1 1-1,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 1,-4 4-1,-8 4 29,0 0 0,-1-1 0,0-1 1,-1 0-1,1-1 0,-1-1 0,-17 5 0,4-3-998,-1 0-1,1-2 1,-34 2-1,25-5-5396,6-3-4202</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:47:49.302"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 84 3730,'0'0'16490,"4"-2"-13521,34-13-2684,-32 11-246,0 1 1,1 0-1,0 0 0,-1 1 1,1 0-1,0 0 1,0 0-1,0 1 0,0 0 1,0 1-1,0-1 0,0 1 1,0 1-1,8 0 0,-14 0-36,0 0-1,1-1 1,-1 1-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 0,0 1 1,-1-1-1,1 1 1,-1-1-1,0 0 0,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 0,0 1 1,0 1 9,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,-1-1-1,0 1 1,0-1 0,0 0-1,-5 7 1,-15 7 48,-2-1-1,-35 18 1,25-15-51,33-18-87,11-1-182,13-1 240,-10-1 4,0 2 1,0 0-1,0 1 0,18 2 1,-29-3 9,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 1,0 0-1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 1,1 0-1,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,0 2 0,-1 0 10,0 0 1,0 0-1,0 0 1,0-1-1,-1 1 1,1-1-1,-1 1 1,0-1-1,0 0 1,0 0-1,-1 0 0,1-1 1,-1 1-1,0-1 1,1 0-1,-8 3 1,-2 1 27,1-1 0,-1 0 0,0-1 1,-14 3-1,24-6-98,0 0-1,1-1 1,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,1-1 0,-1 1 0,0-1 0,-4-1 0,5 1-285,1 0-1,0-1 1,0 1 0,0 0 0,0-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,1-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,0 0 0,0 1 0,-1-1 0,1 1-1,0-1 1,1 0 0,-1 1 0,0-1 0,1-2-1,2-23-9208</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="215.16">450 53 7171,'0'0'16168,"-23"22"-16008,4 0 96,-4 2-80,0 0-96,4-3 16,4-3-96,0-1-224,7-6-1153,5-7-2817</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="402.81">349 75 1217,'0'0'21289,"39"24"-20792,-20-7-369,-4 3 32,4-1-112,-4-1-48,4-3-977,4-4-1920,0-5-3506</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="826.23">673 53 13158,'0'0'9076,"13"-8"-8598,44-26-3,-55 33-438,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,1 0 1,3 0-1,0 0 44,-6 0-80,1 1 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,-1-1 0,1 1-1,-1 0 1,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 1 0,1 0 15,-1 2-4,0 0 1,0-1-1,0 1 1,-1 0-1,1 0 1,-1-1 0,0 1-1,0-1 1,0 1-1,-1-1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,-4 2-1,2-1-53,0 1 0,1 0 0,0-1 0,-1 2-1,1-1 1,1 0 0,-1 1 0,-5 9 0,9-14 33,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,21 10-147,-21-11 117,1 1 1,-1-1-1,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 1,1-1-1,0 3 0,-1-2 54,0 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0-1 0,-1 1 0,0-1-1,1 1 1,-1-1 0,1 0 0,-1 1-1,0-1 1,-2 1 0,0 0-113,0 0-1,-1 0 1,1 0-1,-1-1 1,1 0 0,-1 1-1,1-2 1,-1 1-1,-6 0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1015.14">1038 55 4082,'0'0'18536,"-95"81"-18312,72-59-95,4-5-81,4-4-48,3-2-833,1-5-1680,0-3-2737</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1180.87">849 79 15559,'0'0'6819,"73"42"-6819,-47-27-128,1-6-2161,0-7-3522</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1623.53">1144 92 11605,'0'0'11840,"11"-2"-11632,19-3-47,58-1-1,-88 6-162,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 1-1,-1 0 1,-7 21 72,1-16-32,-19 25 15,25-30-55,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0-1,0-1 1,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1-1,0 1 1,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 1 0,46 4-17,-38-5 8,0 1 0,-1 0 0,1 0 0,0 1 0,11 3 1,-20-5 9,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-11 7 33,11-7-30,-19 7 71,0 0 0,0-2 0,0 0 0,-25 3 1,-40-2-7006,54-6-1852</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3607.62">1772 112 14999,'0'0'8052,"103"-4"-7828,-65-1-176,-4 1-48,0 4-545,-11 0-1824,-8 0-3153,-7 0-2946</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3742.12">1909 199 11029,'0'0'5875,"80"0"-7108,-53-13-4481</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3975.26">2017 45 14727,'0'0'4114,"95"67"-4018,-76-56 176,-7-2 192,-12-1-272,-8 5 48,-22-2 384,-12 2-351,-4 0-113,-3 0-160,3-4-1361,4-5-3217</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink49.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:47:31.522"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3453 171 2225,'0'0'18841,"3"-7"-18166,-2 4-672,1-3 173,0 0-1,0 0 1,0 0-1,-1-1 1,2-11-1,-3 17-163,0 0 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0 0 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1 0-1,1 0 1,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,-1 1 0,1-1 0,0 1-1,0 0 1,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,-1 0 1,0 0 0,-3 0-17,1 0-1,0 0 1,0 0 0,-1 1-1,1-1 1,0 1 0,0 0-1,0 0 1,0 1 0,0-1-1,0 1 1,0 0 0,0 0-1,1 0 1,-1 1 0,-6 5 0,7-5 2,1 1 0,-1 0 0,1 0 1,-1 0-1,1 1 0,1-1 1,-1 0-1,0 1 0,1 0 1,0-1-1,0 1 0,1-1 1,-1 1-1,1 0 0,0 7 1,0-7-7,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 1,0-1-1,1 1 0,0-1 0,-1 0 0,2 1 1,-1-1-1,0 0 0,1 0 0,0 0 0,3 3 0,5 4-86,1 0-1,0-1 0,17 11 0,-17-12 5,1 0 0,-1 1 0,12 13 0,-23-22 84,0-1-1,-1 1 0,1-1 1,-1 1-1,1-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,0-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 0,-1 0 1,1-1-1,-1 1 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,0-1 1,1 0-1,-1 1 0,0-1 1,0 0-1,1 0 1,-1 1-1,-1-1 0,-46 7 20,44-6-6,-21 1 77,10 0-75,1-1 0,0-1 0,-1 0 0,1 0 0,-21-4 0,35 4-130,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1-1,0 1 1,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-2 0,-1 1-246,0-16-4709</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="327.29">3590 243 9332,'0'0'10586,"0"3"-10417,0 0-111,0 13 165,0 0-1,1 1 0,0-1 0,2 0 0,6 24 0,-8-37-209,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,-1-1-1,2 0 1,-1 1 0,0-1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0-1 1,0 0 0,0 1-1,4-3 1,-3 2 16,0 0-1,-1-1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,-1 0-1,0 0 1,1 0-1,-1-1 1,0 1-1,0-1 1,-1 1-1,1-1 1,-1 0-1,2-5 1,0 0 28,-1 0 0,0 0 0,-1-1 1,0 1-1,0 0 0,-1-1 0,0 1 1,-2-11-1,2 20-109,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,-9 0-5237</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="835.59">3849 269 9108,'0'0'11387,"3"6"-10859,32 89 886,-35-95-1402,1 1 1,-1 0-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,-1 1 0,1-1 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,0-1 1,-1 1-1,1 0 0,0-1 1,-1 1-1,1 0 0,0-1 0,-1 1 1,1-1-1,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 0,0 0 1,33-33 305,-28 27-237,-5 7-78,-1-1-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,2 0-1,-2 2-2,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,-1 0 0,1 4 0,5 15 74,-6-18-64,1 0 1,0 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1-1-1,1 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,4 3 0,-3-4 2,-1 1-1,1-1 1,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,-1 1-1,0-1 1,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,-1 1 0,3-4 0,6-7 27,3-3 33,-12 15-75,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 1,1 1-1,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,8 30 37,-6-21-9,1 0 0,0 1 1,0-1-1,1 0 0,0-1 0,6 11 1,-9-19-47,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,2-2 0,2-1-699,0-1 0,0 1-1,0-1 1,0 0 0,-1 0-1,7-8 1,5-13-5049</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1679.43">4338 284 11701,'0'0'11867,"0"-7"-10754,0 5-915,0 5-90,2 93-87,-1 65-28,-9-122-576,4-30 8,1-27 527,1-70 135,0 48-32,1 0 0,2-1 0,11-67 0,-11 104-60,0 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,1 1 1,0-1-1,0 1 1,0-1-1,5-5 1,-5 8-12,0-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,0 0 0,0 0 0,3 1 0,-4-1 12,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,-1 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 2-1,-4 33 13,2-31 12,-1 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0-1 0,0 1-1,-1-1 1,1 0 0,-9 5 0,-53 31-1785,51-35-1782,3-4-2666</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2195.41">4859 23 9428,'0'0'12257,"0"-5"-11428,-1-10-658,-2 13-83,-10 25-27,1 1-10,-21 42 361,-30 79-1,55-121-372,0 0 0,2 1 0,0 0 0,2 1-1,1-1 1,1 1 0,2 26 0,0-43-41,1-1 0,0 0-1,0 0 1,1 1 0,0-1 0,1 0 0,0-1-1,0 1 1,0 0 0,1-1 0,0 0 0,1 0-1,0 0 1,8 9 0,-6-9-420,2 0-1,-1 0 1,1 0-1,-1-1 1,2-1 0,-1 1-1,1-2 1,0 1-1,0-1 1,16 4 0,46 6-6624</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3004.74">5271 204 9780,'0'0'9778,"-9"12"-9281,-13 29 321,-22 52 0,-17 34 520,61-188-247,2 29-1166,1 1 0,1 0 0,1 0 0,2 0 0,2 1 0,17-45 0,-25 75 75,-1-1 1,0 0-1,0 0 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 2 4,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,2 4 0,24 66 108,-20-39 62,5 63-1,-10-66-97,2 0-1,14 57 0,-10-77 414,-3-6-2204</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3203.38">5175 408 6467,'0'0'15831,"7"-22"-15735,20 14 96,7 1-16,8-1-128,4 3-48,-1 1-1376,-3 2-1377,-11 2-1938,-16-3-4097</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3532.27">5437 332 8756,'0'0'10682,"6"4"-10340,0 0-248,0 0 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,-1-1 0,6 9 1,-8-11-67,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 1,-1 0-1,1 1 0,-1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,-3 5 0,2-8-3,1 0-1,-1-1 0,0 1 1,0-1-1,0 1 1,-1-1-1,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,0-1-1,-1 2 0,2-2 5,0 0 0,0 0 0,1 1-1,-1-1 1,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,1 1 0,-1-2 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1-1-1,0 1 1,1 0 0,-1 0 0,0-1 0,1 1-1,-1-1 1,0 1 0,1 0 0,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 1 0,1-1 0,-1 1-1,1-1 1,0 0 0,-1 1 0,1-1-1,0 0 1,0 1 0,-1-1 0,1 0 0,0 1-1,0-1 1,0 0 0,0-1 0,-1-6 43,1 0 0,0-1 0,0 1 1,1 0-1,0-1 0,1 1 0,-1 0 0,2 0 1,-1 0-1,1 0 0,0 0 0,1 0 0,0 1 1,6-9-1,-6 11-245,0 0-1,0 0 1,0 0 0,1 1 0,0 0 0,0 0-1,0 0 1,8-4 0,-7 5-640,-1 1 0,1 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0 0 1,0 0-1,9 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4524.97">5621 291 8660,'0'0'10261,"5"9"-9650,1 4-459,-1 1 0,0 0 0,0 0 0,-2 0 0,0 1 0,0 0 0,0 26 0,-6-13 382,0-23 386,2-18-15,0 8-984,1 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,0 1 0,0-1-1,1 1 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,1 1 0,-1-1 0,1 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 1 1,1 0 0,-1 0 0,8-2-1,5-4-1607,1 1 0,-1 1 0,2 1 0,-1 0 0,1 1 0,32-2 7390,-53 8-4528,-8 3-683,1 1 0,0 1-1,1-1 1,0 2 0,-9 8-1,14-13-421,0 1-1,0 0 0,0-1 0,0 1 1,1 0-1,0 1 0,-1-1 0,1 0 1,1 1-1,-1-1 0,1 1 0,0 0 1,0-1-1,-1 9 0,3-12-77,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1-1,-1 0 1,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,1 0 0,18-2-42,-12-1 29,0 0 0,0-1 0,0 0 0,0 0 0,-1-1 0,0 1 1,0-2-1,0 1 0,0-1 0,-1 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,0 0 0,4-8 0,-10 20 13,-1 2 50,1 1 0,1-1 0,-1 1 1,1 0-1,2 14 0,-2-21-35,0 1-1,1-1 1,-1 1-1,1 0 1,0-1 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1-1,-1-1 1,1 0-1,0 0 1,-1 0 0,1 0-1,2 0 1,0 0 67,1 0 0,-1 0-1,0 0 1,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1-1,1 0 1,-1 1 0,0-2 0,0 1 0,-1 0 0,1-1 0,0 1-1,-1-1 1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0-1,-1 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1-1,0 0 1,0-1 0,1-6 0,-8 32-100,-1 8-31,7-29 51,0 1 0,-1-1 0,1 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,1 0 0,-1 1 0,0-1-1,1 1 1,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0-1,1 1 1,-1-1 0,1 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 0 0,1 0-1,0-1 1,4 1-34,0 0-1,0-1 0,0 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,-1 0 0,0 0 1,9-5-1,-11 6 66,0-1-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,-1 0 0,0 1-1,1-5 1,-3 35-78,0 0 1,-7 28 0,-4 38 71,13-88-28,-1 5 14,0 1-1,0-1 1,-6 22-1,7-31 3,-1 0 0,1 0 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0 0 0,0-1 0,-1 1-1,1-1 1,-1 0 0,1 1 0,-1-1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 0 0,0 1-1,-2-1 1,3 0-12,1 0 0,-1 0-1,0 0 1,0-1 0,1 1-1,-1 0 1,0-1-1,1 1 1,-1 0 0,0-1-1,1 1 1,-1 0 0,1-1-1,-1 1 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 1-1,-1-1 1,1 1 0,0-1-1,-1 0 1,1 1-1,0-1 1,-1-1 0,-4-29-669,8-30-2437,8 13-2285,10-3-3788</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4759.15">6312 186 8180,'0'0'11253,"-3"14"-10226,-4 25-67,2 1 1,1 54-1,-4 10 196</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5056.41">6458 484 12694,'0'0'12416,"5"25"-12072,-2-15-328,-1 0-1,0 0 0,-1 0 0,0 0 1,-1 20-1,-1-25-27,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,-1-1-1,0 1 1,0-1 0,0 0-1,-6 7 1,-52 43-1940,31-28-4503,19-15-5468</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5559.23">6732 323 12998,'0'0'8046,"0"14"-7301,8 137 1514,-6-182-2057,2 0-1,1 1 1,13-48-1,-13 59-153,4-16-60,-7 20-32,1 0 0,1 0 0,0 0 0,1 1 0,1-1 0,0 1 0,1 1 0,10-17 0,-17 30 39,1 0-1,-1-1 1,0 1 0,0 0-1,0-1 1,1 1 0,-1 0-1,0-1 1,0 1 0,1 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,0 0 0,1 0-1,-1-1 1,0 1 0,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 1-1,1-1 1,-1 0 0,0 0-1,1 0 1,-1 1 0,0-1-1,0 0 1,1 0 0,-1 1-1,0-1 1,1 0 0,-1 1-1,0-1 1,8 20-76,-8-19 85,10 45 121,-3 1 1,-2 0 0,-2 0 0,-4 69-1,0-46-358,-3-53-1127,-6-13-5575</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5731.11">6743 367 12214,'0'0'10404,"57"-18"-10484,-18 18-1136,-1 0-2642,-8 0-1184,-3 0-7380</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6028.87">6989 319 9156,'0'0'12195,"5"4"-12096,0-1 36,0 1-1,-1 0 1,0 1 0,0-1-1,0 1 1,0 0 0,-1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,-1 1-1,0 0 1,0-1 0,-1 1-1,1 0 1,-1 0 0,-1 0 0,1 6-1,-4-43 399,2 27-579,1 1 0,-1 0 0,0 0 1,1 0-1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,1 0 0,3-3 0,20-8-2732,-6 10-4486,-12 3-275</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6305.42">7145 289 7828,'0'0'10652,"6"9"-9691,-5-6-886,5 5 197,-1 1-1,-1 0 0,1 1 1,-1-1-1,-1 1 0,0 0 1,0-1-1,-1 1 0,-1 0 1,2 12-1,-18-32 1034,14 7-1310,-1-1 1,1 1-1,0 0 1,0-1 0,0 1-1,1-1 1,-1 1 0,1-1-1,0 1 1,0-1 0,0 1-1,1-1 1,-1 1 0,1-1-1,0 1 1,0-1-1,0 1 1,0 0 0,0-1-1,1 1 1,-1 0 0,4-5-1,-3 6-191,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,5-1 0,75-2-10627,-56 4 3702</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6923.38">7417 300 3602,'0'0'14756,"-9"4"-13497,3-1-1142,-37 25 863,40-26-938,1 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1-1,1 1 1,-1 0 0,1-1 0,0 1-1,-1 0 1,1 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 5 0,2-7-61,-1 0-1,1-1 1,0 1 0,-1 0 0,1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1-1,-1-1 1,1 1 0,0-1 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,1 0 0,31-5-505,-27 3 506,0 0 0,0-1 1,0 0-1,0 0 0,0 0 1,-1-1-1,0 0 0,1 0 1,-1 0-1,-1-1 1,1 0-1,4-5 0,-10 12 72,1-1-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 0,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,1 0-1,-1 0 1,0-1-1,0 1 0,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,2 1-1,-1 0-211,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 0 1,1 1-1,0-2 0,-1 1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0-1 1,3-3-1,6-12-831,-11 17 1047,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,0-1 0,0 1-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0 0,1 0-1,-1 0 1,0 0 0,0-1-1,1 1 1,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 1-1,-1-1 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 1 0,3 0-128,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,5-1-1,-6 1 128,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0-1,0 1 1,-1-2 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-4 0,-1 5 586,3 23-882,2 22 303,-2 0 1,-2 0 0,-6 59-1,-1-71 77,5-32-179,1 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 1,0 0-1,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,-1 0 1,-1-7-3444,2-14-2311</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7250.4">7788 243 14967,'0'0'6109,"12"-2"-6042,-2 1-47,1 0-1,-1 1 1,0 0 0,1 0 0,9 2-1,-17-1-41,0-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1-1-1,0 1 1,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1-1,-1 0 1,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 0-1,1 1 1,0-1 0,-1 1 0,1 3 0,-2-2 37,0-1-1,1 0 1,-1 1-1,0-1 1,-1 0-1,1 0 1,0 1-1,-1-1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0-1 1,-1 1-1,1-1 1,-1 0-1,0 0 1,0 0 0,0 0-1,-5 2 1,3-1 247,1 0 1,-1 0 0,1 1 0,0 0 0,0-1 0,0 1 0,-6 9 0,10-13-274,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,0-1 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 1 1,0-1-1,1 0 0,0 0 0,-1 0 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 1,26 3-1425,-23-2 731,22 3-3340,-3 2-2199</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7460.11">8164 430 13398,'0'0'8388,"31"63"-8292,-35-44 80,-15 3-176,-15-4-1056,-4 1-3074,-19-6-5987</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8345.54">5370 995 7652,'0'0'11984,"-2"12"-11187,-8 19-357,0 0 0,-3-1-1,0 0 1,-21 32 0,20-42-305,14-20-131,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,6-43 328,3 11-407,1-1 0,2 1 1,1 1-1,1 0 0,2 1 0,28-40 1,-43 68 77,1 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0 0-1,5-2 1,-5 3 4,-1 1 1,0-1-1,0 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,0 0 0,0 1 1,1-1-1,-1 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 1-1,0-1 0,1 1 0,9 27 86,-1 0 1,-2 0-1,-1 1 0,4 49 0,-11 5-5226,-2-68-1847</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8502.06">5332 1091 14295,'0'0'6162,"111"-7"-6130,-54 7-32,-4 0-3377,-8 0-2658</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8790.09">5720 1084 10757,'0'0'7753,"8"15"-6537,56 89-223,-60-90-505,-10-16 845,-14-19-102,18 18-1230,1-1-1,-1 1 1,0 0 0,1 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,1 0 0,0 1 0,0-1-1,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1 0,0-1-1,1 1 1,-1-1 0,1 1-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0-1,5-4 1,0 1-652,1 1 0,0 0 1,0 1-1,1-1 0,-1 2 0,1-1 0,0 1 1,0 1-1,0 0 0,12-1 0,20-2-4538</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9596.66">6027 1088 4786,'0'0'14207,"2"12"-13028,2-1-961,-1-1 32,0 0 0,0 0 1,0 0-1,-2 1 0,1-1 0,-1 1 0,-1 18 1,0-28-219,-1 0 1,1 0-1,0-1 0,-1 1 1,1 0-1,0 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1 0 1,1-1-1,-1 1 0,0-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 0,0-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 1,0-1-1,0 1 1,1-1-1,-1 1 1,0-1-1,1 1 0,-1-1 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0-1 1,-1-1-51,1 0 1,0 0-1,1 0 1,-1 0 0,1-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,1 1-1,0-1 1,0 1-1,4-4 1,0 2-77,0 0 0,1 0 0,-1 0 0,1 1 0,-1 0 1,1 1-1,9-3 0,5-1-628,-1 2 1,1 0-1,30-1 0,66 3-6007,-75 2 3696,-41 0 3615,-14 0 2747,5 1-2690,0 0 0,0 0 0,0 1 0,0 0 0,0 1 0,1-1 0,-10 6 0,15-8-591,0 1 0,0-1 0,1 1-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,0 3 0,2-4-100,-1 0 1,1 0-1,0-1 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,3-1-1,1 1-102,0 0-150,-1-1 1,0 1-1,0-1 0,1-1 1,-1 1-1,0-1 0,0 0 1,0 0-1,-1 0 0,1-1 1,0 0-1,-1 0 0,0-1 0,0 0 1,0 0-1,0 0 0,7-8 5222,-12 15-4897,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,2 4 0,1-5-24,1 0 0,-1-1-1,1 1 1,-1-1 0,1 0 0,0 0-1,0-1 1,-1 1 0,1-1-1,0 0 1,9-1 0,-5 0 27,0 0 0,0-1 1,0 1-1,0-2 1,12-4-1,-8 1 187,-1 0 0,0-1 1,0 0-1,-1-1 0,0 0 0,16-16 0,-26 24 424,-2 6-531,-8 17-114,1-1-1,2 2 0,0-1 1,2 1-1,0-1 0,0 27 1,4 64-6,0-113 30,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,-2-1-1,0 1 53,-1 0 0,1-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-2 0,0 1 1,0 0-1,0 0 0,-5-4 0,6 3-86,0-1 0,0 1 1,1-1-1,-1 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,3-6 0,0 1-518,1 1 1,-1-1-1,2 1 0,-1 0 1,1 0-1,0 0 0,12-9 1,26-19-4421</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10031.89">6861 991 11557,'0'0'8970,"10"-2"-8642,-7 2-277,48-7 113,-50 7-161,0 0 0,1 0 0,-1 0 1,1-1-1,-1 2 0,1-1 1,-1 0-1,0 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,0 1 1,0 0-1,1-1 0,-1 1 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 1 0,0-1 1,1 3-1,-2 2 71,0 1 0,0-1 0,0 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,-1 0 0,1 0 0,-9 6 0,-7 12-49,72-23-1156,-52 0 1123,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 1 1,0-1 0,0 1-1,-1-1 1,1 1-1,0-1 1,0 1-1,-1-1 1,1 1-1,0 0 1,-1 0-1,2 1 1,-2-1 41,0 0-1,-1 1 1,1-1 0,0 0 0,0 0 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,-1 1-1,-42 37 1368,44-39-1397,-12 10-70,-16 11 435,11-15-4722</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10286.97">7112 856 18665,'0'0'4177,"46"117"-3376,-16-62-401,-3 1-176,-8 5-16,-15-2-128,-4 2 0,-42-1 0,-26-1 48,-20 0-96,-11-3-32,-11 1-640,-8-9-1873,0-11-9332</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13031.06">296 1517 9588,'0'0'15720,"-7"13"-15750,-12 167-87,16-160-99,0 0-22,0 0 0,1 39 0,3-54-204,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,3 9 0,-4-12-30,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,4 2 0,17 3-7246</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13327.57">584 1621 4226,'0'0'17525,"-1"0"-17505,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,-1-1-1,1 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 1,0 0 0,-39 52-1110,21-29 2500,-32 53 1,27-20-5274,21-46 1385,0 0 0,0 0 0,1 1 0,0 11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13495.85">467 1695 7700,'0'0'11845,"15"19"-11477,8 3-176,0 0-128,0 2-64,4-2-48,-1-3-976,1-6-2306,-1-4-2817</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13787.86">819 1641 9652,'0'0'12604,"-1"-6"-11673,-3-11-560,1 17-114,3 33-28,0 5-262,-10 75 529,0-22-2012,8-30-5516,2-44-1868</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14114.09">1166 1671 11909,'0'0'11334,"-12"26"-11334,1 5 176,-5 1-80,1 1-80,4-5 32,3 0-48,1-4-272,3-4-1409,-4-7-1857,-3-7-2048</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14281.94">1057 1754 12054,'0'0'8467,"64"32"-8307,-33-14-144,-4-1-16,3 0-1360,0-10-3170,1-5-4290</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14497.33">1441 1623 608,'0'0'20570,"-11"18"-20522,11 16 448,0 8-272,0-1-80,0 2-80,0-1-64,0-3-1328,-4-4-2738,-8-5-5042</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15182.45">169 2234 10773,'0'0'11344,"7"-2"-10269,-1 2-975,3-1-1,0 0 1,0 1-1,0 0 1,0 0-1,0 1 1,10 2-1,-17-2-94,0-1 0,0 1 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,0-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,-1 0 0,1-1 0,0 1-1,0 0 1,-1 0 0,0 0 0,1 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 4-1,0-2 5,-1 0-1,0 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,0 0 1,1 0-1,-2-1 0,1 1 1,0-1-1,0 0 0,-1 0 1,0 0-1,0 0 0,0-1 0,-7 4 1,-79 38 112,84-42-122,-3 2 3,-2 2-189,-1-1 0,0-1-1,0 0 1,-1 0-1,1-1 1,-1-1 0,-15 1-1,27-3 144,0 0 0,1 0 0,-1-1-1,0 1 1,1-1 0,-1 1 0,0-1-1,1 1 1,-1-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 0 0,0 0-1,0 1 1,0-1 0,0 0 0,-1 0-1,1 0 1,0 1 0,0-1 0,1 0 0,-1 0-1,0 0 1,0 1 0,0-1 0,0 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 1-1,0-1 1,1 0 0,-1 1 0,1-1 0,-1 0-1,1 1 1,0-1 0,0 0 0,13-2 108,0 1 1,0 0-1,0 1 0,0 0 1,0 2-1,0-1 0,22 5 1,-29-3 27,0 0 1,-1 0-1,1 0 1,-1 1-1,0 0 1,1 1-1,6 4 1,24 12-1710,-11-14-3696,-7-5-3144</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15387.34">555 2234 13782,'0'0'7956,"-31"69"-7540,16-45-224,0-2-176,3 0-16,1-7-944,0-4-2370,3-7-4962</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15566.51">424 2301 11573,'0'0'10725,"57"57"-10517,-31-40-80,1-4-128,0-4-784,-1-3-2578,1-6-4609</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16246.63">812 2249 10485,'0'0'11712,"-4"28"-10328,4 41-553,0-47-390,0-49-232,-4-86 394,42 113-816,-33 1 213,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 1,-1 1-1,0 1 0,1-1 0,-1 1 0,0 0 0,6 5 1,-9-6-2,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 1,-1 1-1,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,0 0 0,0-1 1,-1 3-1,0 1 7,-1 0 1,0-1 0,-1 0 0,1 1 0,-1-1-1,0 0 1,0-1 0,0 1 0,-11 7 0,-52 36 35,31-25-35,-55 43-111,90-66 53,26-1-38,0-2-1,0 0 0,0-2 0,-1 0 1,32-12-1,56-28-3864,-75 27-649,-8 0-951</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16464.07">1192 2204 10277,'0'0'12613,"-30"76"-12148,22-57-305,-3 1-80,-1-3-64,-3-4-16,0 0-769,3-6-1536,5-7-2913</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16603.31">1140 2277 8356,'0'0'13958,"39"31"-13750,-24-12-80,0-3-128,0-1-400,4-4-1985,-4-3-3362</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16942.49">1464 2249 12534,'0'0'8246,"8"3"-7832,-5-3-378,26 12 98,-28-11-131,-1 0 0,1-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,-1-1-1,1 1 1,-2 1 0,-5 7 60,-1 0 0,0-1 0,-1-1 0,0 1 0,0-1 0,-1-1 0,0 0 0,0 0 0,-19 7 0,-5 5 150,33-17 37,43-3 228,-1-2-1,53-12 1,-41 7-3162,0 1-4082</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20023.71">1945 1682 12758,'0'0'10533,"0"-11"-10405,19 11-48,12 0 192,3 0-160,0 0-16,-7 0-96,-1 0-144,-7 7-608,-7 1-1489,-8 1-2258,-4 0-1551</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20192.9">1981 1810 7139,'0'0'11013,"-4"24"-10260,42-24-1,12-13-752,-1 2-112,-7 0-1553,-8 3-1552,-11-6-2258</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20456.62">2088 1612 7924,'0'0'13929,"4"-3"-13655,2 1-244,0-1-1,1 1 1,-1 0-1,0 1 1,1-1-1,-1 1 1,1 0-1,0 1 1,-1 0-1,1 0 1,-1 0-1,1 1 0,-1 0 1,1 0-1,-1 1 1,1 0-1,9 4 1,-5-3-5,0 1 1,-1 1-1,0 0 1,0 1-1,0 0 1,0 0-1,-1 1 1,0 0-1,-1 0 1,9 10 0,-15-14-16,1 1 1,-1-1 0,0 0-1,0 1 1,-1-1 0,1 1 0,-1 0-1,1 0 1,-1-1 0,0 1-1,-1 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,-1-1 0,1 1 0,-1 0-1,0-1 1,1 1 0,-2-1-1,-3 6 1,-8 8-299,0-1 0,-1 0-1,0-1 1,-23 17 0,19-16-951,-15 12-3758,-1-2-4247</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20739.06">1875 2340 9668,'0'0'13847,"34"-8"-13575,8 1 16,0 1-288,-1-1 0,-6 5-464,-9 2-1761,-11 0-3746</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20887.41">1919 2434 4114,'0'0'14791,"53"0"-15736,-7-11-383,-5-4-4307</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21109.42">2034 2258 13622,'0'0'6323,"103"45"-6211,-61-25-80,-15 2-32,-8-1-464,-12-1-256,-7 4 576,-11 0 144,-16 0-192,-7 2-1217,-4-2-1040,0-3-4739</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22547.62">2886 1656 5715,'0'0'14081,"0"-6"-7623,0-22-6369,0 26-87,1-17 16,-1 0 0,0 0 0,-2 0 0,0 0 0,-1 0 0,-1 0 0,-12-31 0,14 48-202,-1 8 48,1 24-23,1 51 90,1-70 63,3 84-1079,16 110 1,-14-151-3121</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23479.21">2767 2249 5346,'0'0'15962,"0"0"-15919,-1 0-1,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 1,0-1-1,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 1,-1 1-1,-5 7 6,1-3 25,0 0 1,1 1-1,0-1 1,-1 1 0,2 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,1 1 1,-1 0-1,2-1 1,-1 1-1,1 0 1,0 0-1,0 0 1,1 14-1,1-19-71,-1-1-1,1 1 1,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 0-1,1 0 1,-1 1 0,1-1-1,-1 0 1,1 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,1-1-1,0 1 1,0-1 0,3 0-1,53 6 50,-54-5-50,10-1-3,-3 1-10,1 0 0,-1-1 0,0-1 1,1 0-1,17-4 0,-27 4 11,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,0-1 1,-1 1 0,1-1-1,-1 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,-1 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,-2-4-1,2 4 7,-1 0-1,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,0 1 0,-4-3 0,-38-20 15,36 19-14,-77-32 18,49 23-6,-36-21-1,71 34-14,-1 1 0,1-1 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1-1 0,0 1 0,-1 0 0,1 0 0,0-1-1,0 1 1,0-1 0,0 1 0,1-1 0,-1 1-1,0-1 1,1 0 0,-1 1 0,1-1 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 0 0,0 1 0,0-1-1,1 0 1,-1 0 0,0 1 0,0-1 0,1 0-1,-1 1 1,1-1 0,0 0 0,-1 1 0,3-3 0,-1 0-21,1 1 1,1-1 0,-1 1 0,0-1 0,1 1 0,0 1 0,-1-1 0,1 0 0,0 1 0,1 0 0,-1 0 0,0 0-1,9-2 1,-1 0-1,1 2-1,0 0 0,0 0 0,-1 1 0,1 0 0,0 1 1,18 3-1,-27-3 19,0 1 0,0 0 0,-1-1 0,1 1 0,-1 1 1,1-1-1,-1 0 0,1 1 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 1,1 1-1,-1-1 0,0 1 0,0 0 0,1 5 0,-2-3-6,1 1 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 1-1,0-1 1,-1 0 0,1 0 0,-1 0 0,-1 0 0,1-1 0,-6 10 0,-1-1-1108,-2 1 0,0-1 0,-20 19 0,4-6-4488</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -7352,6 +8910,202 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="423.1">450 264 6163,'0'0'10631,"-2"-19"-8152,-3 23-2305,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 1,0 1-1,1 0 0,-1 0 0,1 1 0,-4 7 0,5-9-144,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,0 0 1,0-1-1,1 5 1,-1-6-24,1 0 0,0-1 0,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 0 0,1 0 1,-1 0-1,0 0 0,0-1 0,1 1 0,3-2 1,-2 2 0,0-1 1,-1 1 0,1-1-1,0 0 1,-1 0 0,1-1-1,-1 1 1,1-1 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0-1 1,3-2 0,-4 2-4,-1 1 0,1-1 0,0 0 0,-1 1 0,0-1 1,1 0-1,-1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 1,1-1-1,-1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 1,1 1-1,-1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 2 1,-1-1-1,0 0 0,1 0 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-4 1 1,-5 0-1098,9 13-5793,3-13 6597,0 6-6184</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="931.75">655 219 6723,'0'0'11944,"9"52"-9793,-7-50-2118,-1 1 1,1 0-1,-1-1 1,1 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,1 1-1,-1-1 1,1 1 0,-1-1-1,1 0 1,0 0-1,0 0 1,-1 0 0,1-1-1,0 1 1,0-1-1,4 1 1,-6-1-12,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,-1 1 1,1 0-1,0-1 1,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0-1-1,0 1 1,0 0-1,0-1 1,1 1-1,-2-1 1,1 1-1,0-1 1,0 1-1,0-1 1,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 1 1,0-1-1,1-3 1,1 5 1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 0,0 1 1,0 0-1,2 1 1,2 2-22,1 0-1,0-1 1,0 0 0,1 0 0,-1 0-1,0-1 1,9 2 0,-14-4-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1-1 0,-1 1 1,1-1-1,-1 1 1,0-1-1,1 1 1,-1-1-1,0 0 0,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0-1-1,-1 1 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,-1-1-1,1-1 5,0-1-1,0 1 0,0-1 1,-1 1-1,1 0 1,-1 0-1,0-1 1,-1 1-1,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,-3-3 1,2 4-24,1 1 1,-1-1 0,0 1-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 1-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 1 1,-1-1 0,1 1-1,-6 1 1,8-1-143,-1 0 1,0 0-1,1 0 0,-1 0 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,1 0-1,0 0 0,-1-1 1,1 1-1,-1 0 0,1 0 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 0 0,-1 2 1,-5 22-5378,7-10-1504</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1381.3">1245 136 6243,'0'0'12870,"-9"0"-11520,-36 0 3012,50 0-4410,27 0 60,126-5-54,-137 3 40,-1-1 0,0-1 1,0-1-1,-1-1 0,35-15 1,-53 21-3,0 0 2,0 0 1,-1 0-1,1 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,0-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,0-1 0,-1 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1-1 1,-1 0-1,1 1 0,-1-1 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 1 1,1-2-1,-10 2-1850,-18 1-2435,-10 3-2687</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink50.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:47:56.849"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">141 79 5250,'0'0'12590,"-1"-5"-11357,0 4-1143,1-1 0,-1 0-1,0 0 1,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 1-1,-1-1 1,1 0 0,0 0 0,-1 1 0,3-2 0,3 0-16,1-1-1,-1 1 1,1 0-1,0 0 1,0 1-1,-1 0 1,1 1-1,0-1 1,0 1-1,0 1 1,13 2-1,-18-2-67,0-1 0,0 1-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 1 1,0-1 0,1 0-1,-2 1 1,1 0 0,0-1 0,-1 1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,-1 1 1,0-1 0,0 4 0,-1-2 5,0 0 0,0 1 1,0-1-1,0 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0-1-1,-1 1 0,0-1 1,0 1-1,0-1 0,0 0 1,-1 0-1,0-1 0,0 1 1,0-1-1,-6 5 0,-13 7 21,1-1-1,-43 19 1,30-16-28,30-14-17,-5 2-34,0 1 0,0-1-1,0-1 1,-1 0 0,0 0-1,1-1 1,-1-1 0,0 1 0,-16 0-1,26-4 40,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1-1 0,1 1-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1-1-1,0 1 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,0 1 1,-1-1-1,1 0 1,0 0 0,0 0-1,0 1 1,-1-1 0,1 0-1,2 0 1,5 0 1,0 0 0,0 1 1,0 0-1,0 0 0,0 1 0,0 0 1,0 0-1,0 1 0,0 0 0,11 5 1,9 5-17,39 23 0,-12-6-1,-38-21 11,42 19-1667,-19-13-2504,-15-9-581</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="362.84">489 99 4898,'0'0'16931,"0"0"-16893,-1-1 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 1,-1-2-1,5 1 0,0 0-1,0 1 1,0-1-1,0 1 1,-1-1 0,1 1-1,0 0 1,5 1-1,3 0 44,175-3 386,-186 2-465,0 0-1,0 0 1,0 1 0,0-1 0,-1 1 0,1-1-1,0 0 1,0 1 0,-1 0 0,1-1 0,0 1 0,0-1-1,-1 1 1,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0-1,-1 0 1,1-1 0,-1 1 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0-1 0,-1 2-1,-13 43 256,-1-22-71,0 1 1,-1-2-1,-29 32 1,22-28-576,-36 55 1,53-71-613,0 0 0,1 1 1,1-1-1,0 1 0,-4 17 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="535">446 288 12230,'0'0'10837,"106"-9"-10453,-37 5-272,7-3-112,-4 1-1121,-7-1-5122</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:48:00.103"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6 127 11909,'0'0'10061,"-6"-4"-9394,6 4-660,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,45-2 71,48 2-104,-85 1-1225,-1-1-1,0 2 1,0-1-1,0 1 1,13 5-1,-13-1-4390</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="186.23">17 214 10597,'0'0'8484,"15"0"-8196,12 0-112,0 0-176,11-9-400,-4-2-2386,4 0-607,-11-4-3618</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="475.95">160 18 7668,'0'0'15295,"-9"-4"-14663,-20-9-304,54 27-373,-19-11 74,42 13 40,-38-13-53,0 0 0,0 0-1,0 1 1,0 0 0,0 1 0,-1 0-1,0 1 1,0 0 0,13 10 0,-21-14-13,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,-2 2 0,-6 8 21,0 0 0,-1-1 0,-20 15 0,19-16-34,-40 37-1002,32-25-6382</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1060.03">496 114 14038,'0'0'9602,"-3"-4"-9052,2 3-522,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 0,1-1 1,0 1-1,-1-1 0,1 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1 1 1,1-2-1,8-3-24,0-1 0,0 2 0,1-1 0,-1 2 0,1 0 0,0 0 0,0 1 0,0 0 0,0 1 0,0 0 0,14 2 0,-24-1-6,-1 1 0,1-1-1,0 1 1,0-1 0,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,0 0 0,1 0 0,-1 1-1,0-1 1,1 1 0,-1-1 0,0 1 0,0-1-1,0 1 1,-1 0 0,1-1 0,0 1-1,0 0 1,-1-1 0,1 1 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,-1 3 1,2-1 3,-1 0 0,0 0-1,0 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,0 0 0,1 0-1,-5 6 1,-2-2 26,0 0-1,-1 0 1,1-1 0,-2 0-1,-19 11 1,29-17-54,0-1-1,-1 1 1,1-1-1,-1 1 1,1-1-1,0 1 0,-1-1 1,1 1-1,0-1 1,0 1-1,0 0 1,-1-1-1,1 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1-1,1 1 1,-1 0-1,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 1-1,1 0 1,19 27 26,-7-11-56,-13-16 55,1 0 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0-1-1,1 1 1,-2 1 0,0 0 4,0 0 0,-1 0 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,-3 0 0,-10 2 32,0 0-1,-32 0 1,41-3-30,-6 1-132,7-1 131,0 1 0,0-1 0,0 0 0,0 0-1,1-1 1,-9-1 0,13 1-142,0 1 0,0-1 0,0 1-1,0-1 1,1 1 0,-1-1 0,0 0 0,0 1 0,0-1-1,0 0 1,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,1-1 0,11-17-6524,12-2-2128</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1472.85">951 33 3858,'0'0'18048,"0"-4"-17120,1 4-911,-1-1-1,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 1,0 1-1,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 1,0-1-1,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 1,-1 0-1,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,-28 15 460,-28 38 215,50-46-641,0 1 0,0 0 1,1 0-1,0 0 1,1 1-1,0 0 0,0 0 1,1 1-1,0-1 0,0 1 1,1 0-1,0 0 1,1 0-1,0 0 0,1 1 1,0 17-1,2-25-51,-1 0 0,1 0 1,0-1-1,0 1 0,1 0 0,-1-1 0,0 1 1,1-1-1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,1-1 1,-1 1-1,1-1 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1-1 0,0 1 0,6-1 1,5 2 10,0-1 1,1-1 0,-1 0 0,24-4-1,-25 2-49,0-2-1,-1 1 0,1-1 0,15-8 0,-26 11 36,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 1,0 0-1,-1 1 0,1-1 0,0-5 0,-2 7 3,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,-1 0 1,1 0-1,0 1 0,0-1 1,-1 0-1,1 1 0,0 0 0,-1-1 1,1 1-1,-1 0 0,1-1 1,0 1-1,-1 0 0,1 0 1,-3 0-1,-46 1-68,42 0 74,1-1-8,-1 1 0,0 1 0,1-1 0,-1 1 0,1 1 0,-1-1 0,1 1-1,0 0 1,0 1 0,0 0 0,0 0 0,1 1 0,0-1 0,0 1 0,0 0 0,0 1 0,1 0 0,0 0 0,0 0 0,1 0 0,-7 11 0,-2 20-3171,8 3-3310,5-28-3365</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:48:18.980"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">63 85 800,'0'0'10731,"6"-19"-3164,4-20-5514,-10 12-1791,2 45 170,-5 47 149,-3-44-546,-1 0 1,-1-1-1,-1 1 0,-21 33 0,26-48 76,-9 17-237,13-22 155,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 1,-1 0-1,0 0 0,1-1 0,-1 1 0,27-6-51,-1 0 1,0-1 0,0-2-1,-1-1 1,46-24 0,-69 31 8,1 0-1,-1 1 1,1-1 0,-1 0 0,0-1-1,0 1 1,-1 0 0,1-1 0,0 1-1,-1-1 1,0 1 0,1-6 0,9-43-270,-10 43 190,0 18 56,-3 9 38,-1 1 0,0-1 0,-2 0 0,0 0-1,-8 19 1,-5 18-6,-4 20-302,5-26-5836,10-29-991</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:47:26.547"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">936 1081 11349,'0'0'10955,"2"-4"-10411,1 0-499,0 1 0,1 0 1,-1 0-1,0 0 0,1 0 1,0 0-1,0 1 0,-1-1 0,1 1 1,1 0-1,-1 1 0,0-1 1,6-1-1,1 0 5,1 0 0,-1 1-1,1 0 1,19 1 0,-30 2-54,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,-2 3 0,-6 8 30,1-1 1,-2-1-1,0 1 1,0-1-1,-1-1 1,0 1-1,-22 14 1,18-14 0,1 1 1,0 1-1,0 0 1,-18 22-1,36-32-40,0-1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 0 0,7 0 1,-6 0 17,-2 0-2,9 0-20,0 1 0,0 1 0,23 5 0,-34-7 15,0 1 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 0,-1 1 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 3 1,0-3 6,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,-1 1 1,1 0-1,0-1 0,-1 1 0,1-1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,0 0 0,-3 1 0,-47 19 124,44-18-118,-22 7-544,0-1 0,0-2 0,-1-1 0,-39 2 0,27-7-4645</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1223.84">1088 133 8420,'0'-1'15875,"-1"8"-15772,-2 16-139,-2 0 1,-14 41 0,1-6-2305,8 1-6144,9-38-3767</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-632.81">928 661 10549,'0'0'10450,"2"-9"-9559,-2 5-790,0 1-76,0 0 1,1 0-1,-1 1 1,0-1-1,1 0 1,0 1-1,-1-1 1,1 1-1,0-1 1,1 1 0,-1-1-1,0 1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,0 1 1,1 0-1,3-2 1,5-1 33,0 1 1,0 1 0,0 0-1,0 1 1,1 0 0,-1 0 0,12 2-1,-22 0-59,1-1-1,-1 1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 1-1,0-1 0,-1 0 1,1 1-1,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 1 1,-1 1-1,-3 41 64,1-37-61,-1 0 1,1 0 0,-1 0-1,-1-1 1,1 1-1,-1-1 1,0-1 0,0 1-1,-1-1 1,-9 8 0,7-7 11,0 1-1,1 1 1,0-1 0,1 1 0,-6 9 0,12-17-14,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 1,1 1-5,35-2-452,-1-2 0,1-2 0,39-11 0,17-3-5144,-60 15 704</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="63310.75">444 168 3410,'0'0'8601,"-4"-18"-4130,1 15-4290,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,0-1-1,0 1 1,1-1-1,0 0 1,-1 1 0,2-1-1,-1 0 1,0 0-1,0-5 1,1 4-164,-1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,0 0 1,0 1 0,0-1-1,-1 1 1,1-1-1,-6-5 1,6 8-24,0 0 1,0 0 0,0 1-1,0-1 1,0 1-1,0-1 1,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 1 1,1-1-1,-1 1 1,1-1 0,-1 1-1,0 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 1 1,1-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,1 0-1,-4 3 1,-3 8-7,1 0 0,1 0 1,0 1-1,0 0 0,2 0 0,0 0 0,-3 19 0,-6 106 26,12-104 11,-2 0 1,-1 0 0,-9 35-1,10-58-17,-1-1 0,-1 1-1,1-1 1,-2 0 0,1 0 0,-2-1 0,1 1-1,-1-1 1,-1-1 0,0 1 0,0-1-1,-17 13 1,18-17-7,3 0 18,-1 0-1,-1-1 1,1 0 0,0 0 0,-1-1-1,0 1 1,0-1 0,0 0 0,0-1-1,0 0 1,-1 0 0,1 0-1,-8 1 1,13-4-34,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 1-1,-1-2 1,0 1 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,1 0-1,0-1 1,-1 1 0,1 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0-1,0-3 1,0 2-37,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0-1,-1-1 1,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,2-2 0,-3 4 49,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,-1-1-1,1 0 0,-1 0 1,1 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,0-1 1,0 1-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 0,0-1 1,0 1-1,-1 1 1,5 30 7,0 596 476,-6-587-472,-9 54 0,5-54 9,-2 56 0,9-96-13,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,3-1 0,45 0 93,-43 1-66,0-1-33,-1 0 0,1 0 0,0-1 1,-1 1-1,1-1 0,-1 0 1,1-1-1,-1 1 0,9-7 1,10-9-3077,-6 1-1294</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:54:27.372"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">39 143 4034,'0'0'9799,"-7"-10"-8270,-23-30-78,30 40-1391,-1 0 0,1-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 1 0,1 0 1,-1-1-1,0 1 0,0 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1-1 0,0 1 1,1 0-1,-1 0 0,1-1 0,-1 1 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,32-2-487,-27 2 710,807-75 437,-797 74-1359,-22 3-2647,-15 5-504,-11 6-2013</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="550.94">347 188 6931,'0'0'9346,"-1"-5"-8391,2-17-390,10 31-158,15 47-2,-1 28-4,-4 2 1,13 113 0,-33-193-378,0 2 2,0 0 0,-1-1 0,1 1 0,-2 0 0,-1 13 1,2-19-16,0-1 1,-1 1 0,1-1-1,-1 1 1,0-1 0,1 1-1,-1-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 1 0,-1-1-1,1 0 1,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1-1-1,-1 1 1,1-1 0,-1 1-1,0-1 1,1 0 0,-1 0-1,1 1 1,-1-1 0,0 0-1,-1-1 1,0 1-1,1-1 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 1,1 1-1,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 0,0 0 0,-1-2 0,-21-52 63,17 39-54,-10-17-436,20 44 421,0-1-1,1 1 1,0-1 0,1 1 0,-1-2 0,2 1 0,-1-1 0,1 1 0,1-2-1,14 13 1,-16-15 9,0 0 0,1-1 0,-1 0 0,1 0-1,0-1 1,0 0 0,1 0 0,-1-1 0,0 0-1,1 0 1,-1-1 0,1 1 0,0-2 0,0 1 0,13-2-1,-17 0 2,0 0 0,0-1-1,-1 0 1,1 1-1,-1-1 1,1-1 0,-1 1-1,0 0 1,0-1-1,0 0 1,0 1-1,0-1 1,0-1 0,-1 1-1,1 0 1,-1 0-1,0-1 1,0 0 0,-1 1-1,1-1 1,1-6-1,5-9-259,-2-1-1,7-36 0,-12 52-233,3-15-905,-6 11-3436,-1 8 866</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1942.01">269 1153 7668,'0'0'8574,"0"-6"-7771,0-14-342,0 15-211,0 19-155,0 26 318,-1-13-232,0-1-1,2 1 1,1 0-1,2-1 1,11 47 0,-14-70-69,-1-3 154,-5-137 1030,2-49-1218,4 158-88,2 1-1,0 0 0,2 0 1,15-45-1,-20 70 6,0 1 1,0-1-1,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,0 0 0,0-1 1,-1 1-1,1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 1 1,-1-1-1,1 0 0,-1 1 1,0-1-1,1 1 1,-1-1-1,1 1 0,1-1 1,-1 2-5,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 2 0,0 11 22,0 0 1,-1 1-1,0-1 0,-2 0 0,0 0 0,0 0 0,-1 0 0,-1-1 0,-1 1 0,0-1 0,-1-1 0,0 1 0,-1-1 0,0 0 0,-1-1 0,-13 14 0,14-19-28,5-12 29,10-14-21,-6 17 5,0 1 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1 1 1,0-1-1,1 1 0,4 3 25,-1 0-1,0 0 0,0 1 1,0 0-1,-1-1 0,8 10 1,-8-8 41,0-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,1 1 0,6 3-1,0-4-10,-1-1 0,1 0 0,0 0 0,0-1-1,0-1 1,0 0 0,0-1 0,0 0 0,0-1-1,0 0 1,0-1 0,17-5 0,-24 5-47,0 1 1,-1-1 0,1 0-1,-1-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0-1-1,-1 1 1,1-1 0,-1 0-1,0-1 1,0 1-1,0 0 1,-1-1 0,0 0-1,0 0 1,0 0 0,0 0-1,-1-1 1,0 1 0,0-1-1,0 1 1,-1-1 0,0 0-1,0 0 1,0 1 0,-1-8-1,1 4-4,-5-33 74,4 41-79,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1-5,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,1-1 0,-1 0 0,0 0 1,0 1-1,0-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,0-1 0,-1 1 0,1-1 1,0 1-1,0 2 0,-2 43 54,2-42-49,0-3 6,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 1,0-2-1,0 1 0,0 0 0,2 2 0,0-2-2,0 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,0-1 0,0 1 1,-1-1-1,1 0 0,0 0 0,4-1 1,0 0-4,0 0 0,0 0 1,0-1-1,-1 0 1,1 0-1,-1-1 1,1 0-1,-1 0 1,11-7-1,-11 4 0,0 0-1,-1 0 1,1 0-1,-1-1 1,-1 0-1,1 0 1,-1 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,-1 0 1,3-13-1,-1-6-19,-1-1 0,-1-46 0,-2 72 6,0 6-51,-2 32-46,-10 56 0,-1 11 307,9-31-54,8 96 0,-3-161-134,0 0 0,0 0 0,1 0 0,0 0 0,0 0-1,1-1 1,0 1 0,0-1 0,0 1 0,1-1 0,7 8 0,-10-12-3,1 0 1,-1-1 0,1 1-1,-1-1 1,1 1 0,0-1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,1 0 1,-1 0 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,1 0-1,-1-1 1,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,-1 1-1,2-3 1,2-2-17,0-1 0,-1 0 0,1 0 0,-1 0 0,-1-1 0,1 1 0,-1-1 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-1 1 0,1-1 0,-1 1 0,-1 0 0,-8-11 0,0 5-50,0 0-1,-25-19 0,4 6 90,34 25-21,0 1-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,1-1 0,-1 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1-1-1,0 1 1,0 0 0,1 0-1,-1 0 1,0 0 0,0-1-1,1 1 1,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,46-14-3,0 2 0,1 2 0,54-4 0,-36 5-42,-4 1-179,0 0-1463,-21 1-2633,-32 4-1550</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-05-04T14:54:16.411"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">140 349 1313,'0'0'2956,"-16"0"-1177,-82 0 1567,97 0-3237,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,1 1 0,-1-1 1,0 0-1,1 0 0,-1 0 0,0 0 1,1 0-1,-1 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,2 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,1-2 0,0-1-65,0 0 0,0-1-1,0 1 1,1 1 0,-1-1 0,1 0 0,0 1-1,0-1 1,1 1 0,5-5 0,0 3 42,0 1 0,1 1 0,-1-1 0,1 2 0,-1-1 0,1 1 0,0 0 0,11 1 0,83 1 290,-46 2-107,195 8 1102,-115-3-1083,620-22 137,-520 4-345,188 5-3,118-7 54,-337-4-99,169-6 256,-335 23-265,53-2 140,1 5 0,-1 3 0,119 25 0,-67-3 103,-70-15-220,79 25-1,-91-20 11,1-3 0,0-3 0,0-2 0,1-3 1,77-3-1,-141-4-37,0-1 0,0 1 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1-1 0,1 1 1,-1 0-1,0-1 0,0 1 0,1 0 1,-1-1-1,0 0 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,-1 0 0,1 0 1,-1 1-1,1-3 0,9-53 216,-9-121-121,-2 96-1388,-21 83-5071,-9 7-138</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="831.39">1631 646 6467,'0'0'9447,"-1"-4"-8324,-1-5-172,0 13-258,-2 29 113,1 51-164,2-55-428,0-7-89,1-1 0,4 32-1,-4-48-108,1-1 0,0 0 0,-1 0 0,2 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,0-1 0,-1 0-1,1 0 1,0 0 0,0 0 0,6 4 0,-7-6 5,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,4-2 0,48-27 114,-23 12-102,0 5-471,43-14 1,-80 24-7169,-15-1 1128</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1019.04">1659 813 2113,'0'0'13254,"78"-45"-12822,-41 33-128,-8 3-192,-1 0-112,-11 4-848,-9 0-1665,-8 0-2417</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1206.24">1721 560 10277,'0'0'4002,"95"-30"-3826,-54 30-80,-4 0-80,-5 9-16,-7 12-1425,0 1-2609</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1563.44">2049 695 10453,'0'0'6512,"-15"9"-5365,-48 27-504,56-29-599,0 0 0,0 0 0,1 0 0,0 1-1,0 0 1,1 0 0,0 1 0,0 0 0,1-1 0,-6 19 0,8-21-3722,3-13-3353,9-71 5783,-5 37 4230,-4 40-2802,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 1 0,-1-1-1,1 0 1,0 0 0,-1 0 0,1 1 0,0-1-1,0 1 1,0-1 0,-1 0 0,1 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 1 0,1 0-105,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1-1,3 4 1,27 45 99,16 19-1325,-45-65-78,1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,9 6 0,2-3-6494</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2260.12">2210 749 5090,'0'0'11232,"-7"-2"-10247,5 2-934,1-1 0,-1 1 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-3 2 0,0 1 59,1-1 0,0 1-1,0 0 1,0 0 0,1 0 0,-1 0-1,1 0 1,0 1 0,0-1 0,-2 8-1,1-2 81,0 0 0,1 1 0,-1 0 0,2-1 0,-1 14 0,2-22-176,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1-1-1,0 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 1,0 1-1,1-1 0,-1 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1-1-1,1 1 1,0 0-1,-1-1 1,1 1-1,0-1 0,0 0 1,-1 1-1,1-1 1,0 0-1,3 0 0,4 0 11,0 0-1,0-1 0,0 0 0,-1-1 1,1 1-1,0-2 0,0 1 0,-1-1 0,0 0 1,0-1-1,9-5 0,-13 6-49,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 1,0-1-1,-1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,0-9 0,0-19-255,0 33 275,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 1 1,-11 8-120,9-3 106,0 0-1,1 0 1,0-1-1,0 1 0,1 0 1,-1 1-1,1-1 1,1 6-1,-1-11 23,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,1 0 1,-1-1-1,0 1 0,1-1 0,0 0 0,-1 1 1,1-1-1,0 1 0,-1-1 0,1 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,1 0 1,-1-1-1,1 1 0,-1 0 0,0-1 0,1 1 1,-1-1-1,1 1 0,2-1 0,5-1 18,1 0 0,-1 0 0,0-1-1,0-1 1,0 0 0,0 0 0,0-1-1,-1 1 1,1-2 0,-1 0 0,13-9-1,-1-1-6,-1-1 0,-1-1 0,22-24-1,-34 32-67,0 1 0,0-2 0,0 1 0,-1 0-1,-1-1 1,0 0 0,0 0 0,-1 0-1,0-1 1,-1 1 0,0-1 0,0 1-1,-1-1 1,-1 0 0,0 1 0,0-1 0,-1 0-1,0 1 1,-1-1 0,-3-10 0,5 19 51,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,-1 0 0,1 0 6,1 1 1,-1 0-1,0-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,1-1-1,-1 1 1,0-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 3 1,-6 30 259,2 0 0,2 0 0,3 66 1,-1-94-233,1 0 1,0-1 0,0 1 0,1 0 0,0-1-1,0 0 1,0 1 0,1-1 0,0 0 0,0 0-1,0-1 1,1 1 0,0-1 0,0 1 0,1-1 0,-1 0-1,1-1 1,0 1 0,0-1 0,1 0 0,7 5-1,-1-3-414,1 0 0,-1-1 0,1 0 0,0 0-1,0-2 1,1 0 0,-1 0 0,1-1 0,19 0-1,-3-1-5945</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3201.51">1582 1333 1409,'0'0'12285,"-4"-12"-10820,-2-1-937,3 9-216,1 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1-1,0 1 1,0-1 0,0 0 0,1-7 982,0 51-1030,0-26-219,1 1 1,0-1-1,0 1 0,5 15 0,-5-25-28,1 1-1,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,0-1 0,0 1 1,0-1-1,1 0 0,-1 0 0,1 0 0,4 3 1,-7-5-7,0 0 1,1-1 0,-1 1 0,1 0-1,-1-1 1,0 1 0,1-1 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1-1-1,-1 1 1,1-1 0,-1 1 0,3-3-1,-1 1 3,-1 0-1,1-1 1,0 1 0,-1-1-1,0 0 1,0 1-1,1-1 1,-2 0-1,1-1 1,2-4 0,0-1 14,0-1 0,-1 0 0,0 0 1,-1 0-1,0-1 0,1-14 0,-2 33-62,0-1 0,1 1-1,1-1 1,-1 0 0,1 0-1,0 0 1,1 0 0,7 11-1,-10-16 39,0 0-1,0 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 1 1,0-2 0,0 1-1,1 0 1,-1 0-1,0-1 1,1 1-1,-1-1 1,1 0-1,-1 0 1,0 1-1,1-2 1,-1 1 0,1 0-1,-1 0 1,0-1-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0-1 0,3-1-1,-1-1 7,0-1-1,0 1 0,-1-1 1,1 0-1,-1-1 1,0 1-1,0-1 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 1-1,-1-1 1,0-1-1,0 1 1,-1 0-1,0-8 1,0 1-5,0 0-1,0-1 1,-1 1 0,-1 0 0,-1 0 0,0 0 0,-5-14 0,-14-10 66,21 36-110,1 0 1,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1-1,1 1 1,-1 0 0,1 0 0,0-1 0,-1 1-1,1 0 1,-1 0 0,1 0 0,-3 1-1,3 2-265,-1 0 0,0 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1-1,1 1 1,0-1 0,0 5 0,0-3-293,-1 25-2275,1-2-1726</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3571.76">1972 1319 3618,'0'0'12533,"0"-4"-11369,3-9-267,-3 35-254,-1-8-462,1 0 1,0 0-1,3 18 0,-2-31-173,-1 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 1,0-1-1,1 1 0,-1-1 0,2 0 1,0 0 11,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,-1 0 1,0 1-1,1-1 0,-1-1 0,0 1 1,0 0-1,0 0 0,-1-1 1,1 1-1,1-4 0,-2 4-6,0-1 1,1 0-1,-2 0 0,1 0 0,0 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,-1 1 0,0-1 0,1 1 1,-5-4-1,2 3-36,0 1-1,0-1 1,0 1 0,0 0-1,0 1 1,-1-1 0,1 1-1,0 0 1,-1 0 0,1 0 0,-1 0-1,0 1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,-4 2 0,7-1-112,0 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 1 0,1-1 1,0 0-1,-1 1 1,1-1-1,0 1 0,0 0 1,-1 1-1,2-2-132,-1 0-1,1-1 0,-1 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 1,1 0-1,13 2-4842</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3666.8">1959 1319 3858</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3865.66">1959 1306 3858,'72'-10'2393,"-35"4"3638,-15 8-3737,-21-1-2219,1 0 1,0 1-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 1 0,0 1-1,2 10 441,-1 1 0,0-1 0,-3 27 0,0-33 106,2-11-93,2-44-25,-1 42-843,-1-1 0,1 1-1,0 0 1,1-1 0,0 1 0,-1 0-1,4-5 1,-3 5-217,1 1 0,0 0 0,-1 0 0,1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 1,1 1-1,-1 0 0,1-1 0,0 1 0,4 0 0,0-1-3420</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4052.12">2246 1252 2049,'0'0'10007,"0"-5"-8662,0-1 835,-1 14-701,0 40-81,1-24-1280,0-1 1,7 44 0,-6-65-248,-1-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 1,0 1-1,1-1 0,2 1 0,20 0-7368,-12-6 1526</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5806.03">2333 1218 6275,'0'0'9236,"-1"12"-8233,-13 78-18,12-80-929,-1 0 0,0 0 1,-1 0-1,0 0 0,0-1 1,-1 1-1,0-1 0,-8 10 1,12-34 272,6-9-338,-4 22 11,0 1 0,0-1 1,1 0-1,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,4 0-1,47 0 85,-47 2-73,0-1 0,0 1 0,0-1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0-1 0,10-5 0,-11 3-8,0-1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,-1-1 1,1 1-1,-1-1 0,0 0 1,0 0-1,-1 0 1,0-1-1,0 1 1,0 0-1,-1-1 1,0 1-1,0-1 1,-1-10-1,9 109 7,-5-72 17,-2 0 0,0-1 1,-1 1-1,-3 36 0,2-56-25,-1-1 1,1 1 0,0-1-1,0 1 1,0-1 0,-1 1 0,1-1-1,0 1 1,-1 0 0,1-1-1,0 1 1,-1-1 0,1 1-1,-1 0 1,1-1 0,0 1 0,-1 0-1,1-1 1,-1 1 0,1 0-1,-1 0 1,1 0 0,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0-1,1 1 1,0-1 0,-1 0-1,1 1 1,-1-1 0,1 1 0,0-1-1,-1 0 1,1 1 0,0-1-1,0 1 1,-1-1 0,1 1-1,0 0 1,0-8-13,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1 1 0,0-1 0,1 1 0,5-12-1,2 3-105,0 0 0,19-20-1,-19 23 27,-2 2 51,0-1 1,0 1-1,-1-1 0,-1-1 0,0 1 1,0-1-1,-1 0 0,-1 0 1,0-1-1,-1 1 0,0-1 1,-1 0-1,0 0 0,-1 0 1,0-13-1,-18 30-16,13 0 67,0 1 1,1-1-1,0 1 1,0 0-1,0 0 1,1 0-1,0 0 1,0 1-1,0-1 1,1 1-1,-1-1 1,1 1-1,0 7 1,-3 83 475,4-76-274,1-4-41,0 0 0,0 1 0,2-1-1,0 0 1,0-1 0,2 1 0,10 26-1,-14-42-166,-1 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,0-1-1,0 0 1,1 0 0,-1 1-1,0-1 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0 1 0,1-1-1,-1 0 1,1-1 0,-1 1-1,0 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,0 0-1,1-1 1,13-13 70,20-37 42,-26 36-265,1 2 0,0-1 0,1 2-1,21-23 1,-30 35 140,-1 0 0,1-1 0,-1 1 0,0 0 1,1 0-1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0 0 0,6 38 95,-4-26 6,-1-8-67,0 0 1,0-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1-1,0 0 1,0 1 0,0-1 0,0-1 0,7 8 0,-7-10-19,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 1,-1-1-1,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 1,-1 0-1,1 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,5-3 0,4-3 12,0 0-1,-1-1 0,0 0 1,0-1-1,-1 0 0,13-16 1,-17 19-24,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0-12 0,-2 16-53,0 0-1,0 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,-1 1 0,1-1 1,0 0-1,-1 1 0,0-1 0,-2-3 1,3 6 44,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1-1 0,0 1-1,0 0 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,-2 2 1,0 0 3,-1 0-1,1 1 1,-1 0 0,1 0-1,0 0 1,0 0 0,1 0 0,-1 1-1,1-1 1,0 1 0,0 0-1,1-1 1,-1 1 0,0 10-1,-1 4 58,1 0 0,1 29-1,1-38-8,0-9-37,0 0-1,1 1 1,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,3 2 0,-1 0 11,1 0-1,0 0 1,0-1 0,0 0 0,1 0 0,-1 0 0,6 1-1,0-2 41,0 1 0,0-1 0,0-1 0,0 1 0,17-5 0,-20 2-39,0 0 0,0 0-1,-1-1 1,1 0-1,-1-1 1,0 1-1,0-1 1,10-10 0,37-48 7,-51 59-56,0 1-1,0-1 1,0 0 0,-1 0 0,0 0-1,1 0 1,-1-1 0,-1 1 0,1 0 0,-1 0-1,1 0 1,-1-1 0,-1-5 0,1 5-35,0 5 64,0-1 1,0 1-1,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 1,-1 0-1,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,0 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 1,0 0-1,0 1 0,-16 16-20,14-9 31,0 1 1,0 0-1,0 0 0,1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,3 9 0,-3-16 8,1 1 0,-1 0 0,1 0-1,0-1 1,0 1 0,1-1 0,-1 1 0,0-1 0,1 1-1,0-1 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,1-1 0,-1 0 0,1 1-1,-1-1 1,1 0 0,0-1 0,-1 1 0,1 0 0,0-1-1,0 0 1,0 1 0,-1-1 0,5-1 0,0 1-4,0-1 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1 0,0 0-1,-1 0 1,1 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,-1 1 0,0-1 0,0 0 0,0-1 0,0-12 0,0-5 28,0-78-414,-3 95 321,1 0 0,-1 0 0,-1 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,0 0 0,0 1 0,-6-8 1,9 15 51,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 1,-1-1-1,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-6 23-71,5-23 72,-5 33 154,1 0-1,2 1 1,1-1 0,7 65-1,-5-91-104,1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,1 0 0,-1 0 0,6 7-1,17 8-1125,-24-20 733,0-1-1,0 1 1,-1 0 0,1-1-1,0 0 1,0 1 0,0-1-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0-1-1,0 1 1,2-1 0,9-7-4074</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5976.76">3322 1161 7780,'0'0'9268,"49"-50"-9268,-16 41 0,4 0-1857,-4-3-1232,-9-2-4819</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7233.78">5053 269 5170,'0'0'7777,"-4"0"-6715,6 0-477,65-1 4115,185-6-3915,309-4-312,-163 8-245,-176-16-137,40-1-6,-250 19-177,-1-1 0,1 0 0,-1 0 1,0-1-1,0-1 0,0 0 0,0 0 0,0-1 0,-1 0 0,10-8 0,-30 13-7613,-12 0 475</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8124.9">6084 293 7443,'0'0'7993,"-2"-8"-7037,1-7-993,-3-7 2194,3 46-1025,1 431 546,-1-465-1662,0-1-1,-1 0 1,0 1 0,-1-1 0,0 1 0,0 0-1,-1 0 1,-1 0 0,0 0 0,0 1 0,-1 0 0,0 0-1,-11-13 1,17 22-20,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1-1,0-1 1,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1-1-1,0 1 1,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 1 0,-2 21-106,4-15 102,-1 0 1,1 0 0,1 0 0,-1 0-1,1 0 1,3 7 0,1-5 6,1-1 1,-1 1-1,1-1 0,0-1 1,11 9-1,-15-13 12,1 0-1,0 0 1,0 0-1,1-1 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1-1 0,0 1-1,-1-1 1,1-1-1,8 2 1,-11-3-3,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0-1,2-4 1,25-45 38,-27 50-46,2-7-210,0 1 0,-1-1 1,1-1-1,-2 1 0,1 0 1,-1 0-1,0-1 1,-1 1-1,0-10 0,-12 18-12210</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8788.68">5718 1076 4914,'0'0'12302,"0"-6"-11339,0-7-641,1 8-51,-1 0-1,0 0 1,0 0-1,-1 0 1,0 0-1,1 0 1,-4-10-1,3 13-243,0 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,-1 1 0,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1-1,-1 0 1,0 0 0,0 0-1,0 1 1,0-1 0,1 0 0,-1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,-4 1 0,4-2-27,-1 1 0,0 0 0,1 1 0,-1-1-1,1 0 1,-1 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,1 1 0,0-1-1,-1 1 1,1 0 0,0-1 0,0 1 0,1 4 0,-1-3 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,1-1-1,0 1 0,-1 0 0,2-1 1,-1 1-1,0-1 0,1 0 1,-1 0-1,4 3 0,4 3-7,1-1 0,-1 0-1,24 11 1,-24-13-46,1 0 0,-1 0 0,0 1 0,-1 0 1,14 14-1,-23-21 45,1 0 1,-1 1 0,1-1 0,-1 1-1,1-1 1,-1 0 0,0 1 0,1-1-1,-1 1 1,1 0 0,-1-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,0-1 0,0 1-1,1 0 1,-1-1 0,0 1 0,0-1-1,0 1 1,0 0 0,-1-1 0,1 1-1,0 0 1,0-1 0,0 1 0,0-1-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1-1,1 1 1,-1-1 0,1 1 0,0-1-1,-1 0 1,1 1 0,-1-1 0,0 1-1,1-1 1,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,0 0 0,1 0-1,-1 0 1,0 1 0,1-1-1,-1 0 1,0 0 0,-47 3 123,41-3-138,-14 2 18,13-1-48,0 0 1,0 0-1,0-1 1,0 0-1,0 0 1,0-1-1,0 0 1,0-1-1,1 1 1,-11-5-1,13 2-1472,5-4-5444</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10030.03">5731 1215 7475,'0'0'5470,"16"-7"-4080,-7 3-1273,13-5 376,0-1 1,0-1-1,24-17 0,-40 24-434,-1 1 0,0-1-1,0 0 1,0 0-1,-1-1 1,1 1 0,-1-1-1,0 0 1,0 0-1,-1-1 1,0 1 0,0-1-1,0 1 1,0-1-1,-1 0 1,0 0 0,0 0-1,-1-1 1,2-11-1,-3 10-28,0 0 1,-1-1-1,0 1 0,0 0 0,-3-8 0,4 15-34,0 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1 0 0,-1 0-1,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 1,0 0 0,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 0 1,0 1 0,-1-1-1,1 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,0 1 1,-2-1-1,0 2 15,1-1-1,0 1 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,1 1 0,0-1 0,-1 1 1,0 5-1,-16 44 294,18-50-284,-5 16 148,1-1 0,1 1 0,1 0 0,0 20 0,2-29 12,0 0 0,1 0 0,0 1 0,0-1 0,1 0 0,0 0 0,1-1 0,0 1 0,8 15 0,-10-23-152,-1 0 0,1 0-1,0 0 1,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,0 1-1,-1-1 1,1 0 0,0 1 0,2-3-1,41-34-26,-34 28 62,4-5-42,-12 11-30,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,6-1 0,-9 5 9,1 1-1,0-1 1,-1 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0-1 1,-1 1-1,1 3 1,4 11 24,-4-15-16,0 1-1,0-1 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 1,1-1-1,-1 1 1,4 0-1,-1-1 8,0 0-1,0 0 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 0 0,1 0-1,5-3 1,0 0-1,0-2 1,0 1-1,-1-1 1,0 0-1,-1-1 1,1 0-1,-1 0 1,-1-1-1,13-18 1,-18 21-53,0 0 1,0 0-1,0 0 0,0-1 1,-1 1-1,-1-1 1,1 1-1,-1-1 1,0 1-1,0-1 0,-1 1 1,-1-7-1,2 12 28,0 0 0,0 1-1,0-1 1,0 0-1,-1 1 1,1-1 0,0 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,-1-1-1,1 1 1,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1-1,-1 1 1,0 0 0,1-1-1,-1 1 1,1 0-1,-1 0 1,1-1 0,-1 1-1,0 0 1,1 0 0,-1 0-1,0 0 1,-20 8-325,-10 25 200,28-27 141,-1 0 1,1 0 0,0 0-1,1 1 1,-1 0-1,1-1 1,1 1 0,-1 0-1,1 0 1,0 12-1,0-17 0,1 0 0,0 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,1-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,4 1-1,5-1 23,0 0 0,0 0 0,0-1 0,-1-1 0,1 0 0,-1 0 0,1-1 0,12-5 0,-18 6-54,1-1 1,-1 1-1,0-1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,0-1 0,-1 0 0,1 1 0,-1-1 1,0 0-1,4-11 0,-5 12-39,-1-1-1,0 0 1,0 1 0,0-1 0,-1 0 0,0 0 0,1 0-1,-2 1 1,0-8 0,1 10 38,0 1-1,0-1 1,-1 1 0,1 0 0,0-1-1,-1 1 1,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 1 0,-1-1 0,1 0-1,0 0 1,-1 1 0,1-1-1,0 0 1,-1 1 0,1 0 0,-1-1-1,1 1 1,0 0 0,-4-1-1,4 2 26,0 0-1,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,0 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,2-1 1,-1 2-1,-3 47 195,3-47-175,0 1 14,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,3 5 0,-3-6-4,1 0 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 0 1,0 1 0,0-1-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 0-1,1 0 1,-1 0 0,4 0-1,2-1 4,0 0 0,-1-1 0,1 0-1,0 0 1,-1-1 0,0 0 0,1 0 0,-1-1 0,0 0-1,-1-1 1,1 1 0,-1-2 0,0 1 0,0-1-1,7-8 1,-7 8-35,-1-1-1,1 0 1,-1-1-1,-1 1 0,0-1 1,0 0-1,0-1 1,-1 1-1,0-1 1,-1 0-1,0 0 1,0 0-1,-1 0 1,2-13-1,-3 4-182,1-53-722,-1 67 885,-2 1 1,1-1-1,0 1 1,-1-1-1,1 1 0,-1-1 1,0 1-1,0-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,-1 0 0,0 0 1,-3-3-1,4 6 33,1 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 1,1 0-1,0 1 0,-1-1 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 0,0 1 0,-1-1 1,1 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0 0 1,-9 30 177,8-29-155,-5 27 165,2-1 0,-3 45 0,7-61-195,0 0 0,0 1 0,1-1 0,1 0 0,0 0 0,1 0 0,0 0 0,7 19 0,-8-29-225,-1 1 1,1 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,5 4 0,16 2-6206,-7-8-2273</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10190.35">6494 1052 10117,'0'0'5218,"127"-40"-5090,-74 31-128,0-3-1457,-7 0-6098</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7408,7 +9162,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">175 226 5442,'0'0'10005,"1"-9"-8948,3-48 1514,-4 56-2539,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-2 0 1,-42 0 231,33 0-155,8 1-85,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 1 0,1-1 0,-1 1 0,0 0-1,1 0 1,-1 1 0,1-1 0,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,0 1 0,0-1 0,0 1-1,0 0 1,1 0 0,-1 0 0,1 0 0,-1 6-1,-1-1 34,1 1-1,0-1 1,1 1-1,0 0 0,0 0 1,1 0-1,0 0 1,1 0-1,0 0 0,1-1 1,3 14-1,-3-18-49,-1-1 0,1 1 0,1-1-1,-1 1 1,1-1 0,-1 0 0,1 0-1,0 0 1,1-1 0,-1 1 0,1-1-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1-1,5 3 1,-1-2 11,0 0-1,0-1 1,0 0-1,0 0 1,0-1-1,0 0 1,0 0 0,1-1-1,11-1 1,-7 0 0,0-1 0,-1 0 0,1-1 0,-1-1 0,0 0 0,0 0 0,0-1 0,-1-1 0,0 0 0,0 0 0,0-1 0,18-16 0,-23 15 10,0 0-1,-1 0 1,0 0-1,0-1 1,-1 0-1,0 0 1,-1 0-1,0-1 1,0 1-1,-1-1 1,0 0-1,-1 0 1,0 1 0,0-1-1,-1 0 1,-1-14-1,1 23 209,-2 28-168,-6 7 74,1 1 0,1-1 1,-1 55-1,7-87-141,1-1 0,-1 1-1,0-1 1,0 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 1-1,0-1 1,-1 0 0,1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1-1-1,-1 1 1,0 0 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,3-1 0,-1 1 6,1 0 1,0 0-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,0-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 0 1,0 0-1,4-4 1,-3 0 2,0 0 1,-1-1 0,0 1-1,0-1 1,0 0 0,-1 0 0,0 0-1,0 0 1,-1 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,0-1-1,-1 1 1,1 0 0,-2-1-1,1 1 1,-1 0 0,-2-8 0,3 10-11,-1-1 1,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1 1 0,0 0 0,0-1-1,0 1 1,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 1 0,-1 1 0,-7-2 0,11 2-1,0 1 0,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 1 1,0-1-1,1 1 0,-1 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,1 0-1,0 1 0,-1-1 1,1 0-1,-1 0 1,1 1-1,0-1 1,0 1-1,0-1 0,0 1 1,-2 2-1,2 3 5,-1 0 0,1-1-1,0 1 1,0 0 0,1-1-1,0 14 1,0-5 6,1-13-16,-1 1 0,1 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1-1,1-1 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1-1-1,1 1 1,0-1 0,4 1-1,3 1-74,0-1 0,1-1 0,-1 1 0,0-1 0,0-1 0,21-4 0,-22 2 56,1-1 0,-1-1-1,1 0 1,-1 0 0,-1-1-1,1 0 1,-1-1 0,0 1 0,0-2-1,-1 1 1,0-1 0,0 0-1,-1-1 1,0 1 0,-1-1 0,1-1-1,-2 1 1,1-1 0,-1 1-1,-1-1 1,0-1 0,0 1-1,-1 0 1,0-1 0,-1 1 0,1-12-1,-2 18 56,-5-45 349,5 48-368,0-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,-1-1 0,0 1 1,0 0-1,1 0 0,-1 0 1,0 0-1,0-1 1,0 1-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,1-1 0,-2 1 1,2 0-15,0 1-1,0 0 1,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0 0 0,-5 34-21,4-30 33,-4 44 86,4 93 0,2-72 57,-1-65-145,0-1 0,0 1 1,0 0-1,1-1 0,0 1 0,0-1 1,0 0-1,1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,1 0 1,0-1-1,0 1 0,0-1 0,7 8 1,-4-8-302,-1 0 1,1 0 0,0-1-1,0 0 1,0 0 0,0 0 0,1-1-1,-1 0 1,1 0 0,0-1-1,-1 0 1,1 0 0,13 0 0,13 0-5033,-3-1-3205</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="298.97">810 312 9380,'0'0'12555,"-4"-1"-11789,-8-2-285,16 0-225,35 1-152,23-1-9,33-20 119,-84 19-710,0 1 0,-1-1 1,0-1-1,0 0 0,0-1 0,16-11 0,-24 14-1297</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="298.95">810 312 9380,'0'0'12555,"-4"-1"-11789,-8-2-285,16 0-225,35 1-152,23-1-9,33-20 119,-84 19-710,0 1 0,-1-1 1,0-1-1,0 0 0,0-1 0,16-11 0,-24 14-1297</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="588.89">942 184 5234,'0'0'11694,"-1"-6"-10064,-2-19-262,2 19 1893,-1 229-870,0-113-3390,1 0-4499,1-87-2010</inkml:trace>
 </inkml:ink>
 </file>
@@ -7440,7 +9194,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">89 108 11733,'0'0'8348,"-3"-5"-7593,-10-13-123,10 13 1281,2 37-1520,2-20-335,-1 380 687,-12-446-608,3 19-138,1-3-27,2-1 0,2 1 0,1-1 0,2 0 0,5-52 0,-2 84 28,0-1 0,1 0 0,-1 1 0,1-1 0,1 1 1,-1 0-1,1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,1 0 1,-1 1-1,11-9 0,-11 10-155,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1 0 1,1 0-1,-1 1 0,1-1 0,0 1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 2 0,5 1 0,-10-3-66,0 1 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 2 1,1 1-516,0 25-5077</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="218.96">20 342 5955,'0'0'16135,"-20"0"-15655,35 0-416,10-6 64,9-2-48,6-3-80,5-1-560,0 7-1489,-11-3-2577,-4 5-2113</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="801.42">366 344 7443,'0'0'13695,"-4"-11"-12804,1 3-810,-1-2 122,0 1 1,1-1-1,-3-19 0,6 25-150,-1 1 0,1-1 1,0 1-1,0-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,0-1 0,0 1 0,1 0 1,-1 0-1,1-1 0,0 1 0,-1 0 0,1 0 0,4-3 1,2-3 3,1 1 0,1 0 0,-1 1 0,21-13 1,-26 18-57,0 0 0,1 0 0,-1 0 1,1 0-1,-1 1 0,1-1 1,-1 1-1,1 0 0,0 0 1,-1 1-1,1 0 0,0-1 1,0 2-1,0-1 0,8 2 0,-12-1 0,1 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1 0,0 0-1,0-1 1,-1 1 0,1 0 0,-1-1 0,1 1-1,-1 0 1,0-1 0,1 4 0,2 44-98,-4-43 58,1 2 17,0-1 0,-1 1-1,-1-1 1,1 0 0,-1 1 0,-1-1-1,1 0 1,-1 0 0,0 0 0,-1-1-1,0 1 1,0-1 0,0 0 0,-6 6-1,-8 8 13,-1-1-1,-37 27 1,0 2 39,56-48-26,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 1 1,0-1-1,1 0 1,17 1-5,23-5-120,48-18-2078,-30 2-5316,-29 7-1441</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1087.39">740 99 5603,'0'0'14153,"0"-12"-13316,0-36-114,0 36-144,0 24-72,-20 403-453</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1087.37">740 99 5603,'0'0'14153,"0"-12"-13316,0-36-114,0 36-144,0 24-72,-20 403-453</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7791,8 +9545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1864BB7B-90BD-4696-848E-884A92E3A2BA}">
   <dimension ref="B2:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7895,7 +9649,7 @@
     <row r="24" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C24" s="2">
         <f ca="1">TODAY()</f>
-        <v>45780</v>
+        <v>45781</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.45">
@@ -8057,6 +9811,505 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2035AE1E-CEB2-4685-8B77-EDCF0BFD930E}">
+  <dimension ref="B2:G43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2">
+        <f>COUNT(B2:B11)</f>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3">
+        <f>COUNTA(B2:B11)</f>
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4">
+        <f>COUNTBLANK(B2:B11)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C13" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C17">
+        <f>COUNT(Dataset!A2:A501)</f>
+        <v>500</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C19">
+        <f>COUNTA(Dataset!B2:B501)</f>
+        <v>500</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C21">
+        <f>COUNTA(Dataset!B2:C501)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C24" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C31">
+        <f>COUNTIF(Dataset!N2:N501,"&gt;=8")</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C33" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C43">
+        <f>COUNTIFS(Dataset!K2:K501,Count!D39,Dataset!N2:N501,Count!D41)</f>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C13:G15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="C24:G26"/>
+    <mergeCell ref="C33:G36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B41AF3-70B3-4102-8158-F4C8D307949B}">
+  <dimension ref="B2:H34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="1.73046875" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C8" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <f>AVERAGE(Dataset!M2:M501)</f>
+        <v>7.5119999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>363</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C22">
+        <f>AVERAGEIF(Dataset!E1:E501,Dataset!E478,Dataset!O1:O501)</f>
+        <v>38.125</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>398</v>
+      </c>
+      <c r="D28" t="s">
+        <v>396</v>
+      </c>
+      <c r="E28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C34">
+        <f>AVERAGEIFS(Dataset!J1:J501,Dataset!F1:F501,Dataset!F474,Dataset!B1:B501,Dataset!B479)</f>
+        <v>72432.857142857145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C8:G10"/>
+    <mergeCell ref="C14:G16"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="C24:G26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8065,7 +10318,7 @@
   <dimension ref="B2:B28"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8079,42 +10332,42 @@
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8184,7 +10437,7 @@
   <dimension ref="A1:O501"/>
   <sheetViews>
     <sheetView topLeftCell="A464" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31763,8 +34016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0732FF7-0829-462A-8DD2-306247B624EE}">
   <dimension ref="B2:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32570,55 +34823,55 @@
       <c r="B6" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D8" s="13" t="str">
+      <c r="D8" s="12" t="str">
         <f>D6</f>
         <v>Acciojob</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>-1</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>1</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>2</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>2</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>4</v>
       </c>
     </row>
@@ -32626,7 +34879,7 @@
       <c r="F20" t="s">
         <v>284</v>
       </c>
-      <c r="K20" s="15" t="str">
+      <c r="K20" s="14" t="str">
         <f>F20</f>
         <v>Top</v>
       </c>
@@ -32638,21 +34891,21 @@
       <c r="E21" t="s">
         <v>287</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>286</v>
       </c>
-      <c r="J21" s="15" t="str">
+      <c r="J21" s="14" t="str">
         <f>E21</f>
         <v>Left</v>
       </c>
-      <c r="K21" s="15" t="str">
+      <c r="K21" s="14" t="str">
         <f>F21</f>
         <v>Acciojob</v>
       </c>
-      <c r="L21" s="15" t="str">
+      <c r="L21" s="14" t="str">
         <f>G21</f>
         <v>Right</v>
       </c>
@@ -32670,7 +34923,7 @@
       <c r="F22" t="s">
         <v>282</v>
       </c>
-      <c r="K22" s="15" t="str">
+      <c r="K22" s="14" t="str">
         <f>F22</f>
         <v>Bottom</v>
       </c>
@@ -32687,7 +34940,7 @@
       <c r="E38" t="s">
         <v>293</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>289</v>
       </c>
       <c r="G38" t="s">
@@ -32750,10 +35003,10 @@
       <c r="E52">
         <v>19</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="15">
         <v>1</v>
       </c>
       <c r="H52">
@@ -32771,10 +35024,10 @@
       <c r="E53">
         <v>19</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="15">
         <v>2</v>
       </c>
       <c r="H53">
@@ -32792,10 +35045,10 @@
       <c r="E54">
         <v>19</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="15">
         <v>3</v>
       </c>
       <c r="H54">
@@ -32813,10 +35066,10 @@
       <c r="E55">
         <v>19</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="15">
         <v>4</v>
       </c>
       <c r="H55">
@@ -32831,10 +35084,10 @@
       <c r="E56">
         <v>19</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="15">
         <v>5</v>
       </c>
       <c r="H56">
@@ -32849,10 +35102,10 @@
       <c r="E57">
         <v>19</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="15">
         <v>6</v>
       </c>
       <c r="H57">
@@ -32864,10 +35117,10 @@
       <c r="E58">
         <v>19</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F58" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="15">
         <v>7</v>
       </c>
       <c r="H58">
@@ -32879,10 +35132,10 @@
       <c r="E59">
         <v>19</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="15">
         <v>8</v>
       </c>
       <c r="H59">
@@ -32894,10 +35147,10 @@
       <c r="E60">
         <v>19</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="15">
         <v>9</v>
       </c>
       <c r="H60">
@@ -32909,10 +35162,10 @@
       <c r="E61">
         <v>19</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="F61" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="15">
         <v>10</v>
       </c>
       <c r="H61">
@@ -32921,16 +35174,16 @@
       </c>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="H63" s="18">
+      <c r="H63" s="17">
         <v>1</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I63" s="17">
         <v>2</v>
       </c>
-      <c r="J63" s="18">
+      <c r="J63" s="17">
         <v>3</v>
       </c>
-      <c r="K63" s="18">
+      <c r="K63" s="17">
         <v>4</v>
       </c>
     </row>
@@ -32938,20 +35191,20 @@
       <c r="E64">
         <v>5</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="14">
         <f>E64+E66</f>
         <v>12</v>
       </c>
       <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K64" s="14">
         <f>I64+I66</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="G65" s="15">
+      <c r="G65" s="14">
         <f>E65+E67</f>
         <v>0</v>
       </c>
@@ -32965,7 +35218,7 @@
       </c>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="G70" s="15">
+      <c r="G70" s="14">
         <f>E70+E72</f>
         <v>0</v>
       </c>
@@ -32979,7 +35232,7 @@
       </c>
     </row>
     <row r="74" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E74" s="16">
+      <c r="E74" s="15">
         <v>1</v>
       </c>
       <c r="F74">
@@ -32988,7 +35241,7 @@
       </c>
     </row>
     <row r="75" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E75" s="16">
+      <c r="E75" s="15">
         <v>2</v>
       </c>
       <c r="F75">
@@ -32997,7 +35250,7 @@
       </c>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E76" s="16">
+      <c r="E76" s="15">
         <v>3</v>
       </c>
       <c r="F76">
@@ -33006,7 +35259,7 @@
       </c>
     </row>
     <row r="77" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E77" s="16">
+      <c r="E77" s="15">
         <v>4</v>
       </c>
       <c r="F77">
@@ -33015,7 +35268,7 @@
       </c>
     </row>
     <row r="78" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E78" s="16">
+      <c r="E78" s="15">
         <v>5</v>
       </c>
       <c r="F78">
@@ -33024,7 +35277,7 @@
       </c>
     </row>
     <row r="79" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E79" s="16">
+      <c r="E79" s="15">
         <v>6</v>
       </c>
       <c r="F79">
@@ -33033,7 +35286,7 @@
       </c>
     </row>
     <row r="80" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E80" s="16">
+      <c r="E80" s="15">
         <v>7</v>
       </c>
       <c r="F80">
@@ -33042,7 +35295,7 @@
       </c>
     </row>
     <row r="81" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E81" s="16">
+      <c r="E81" s="15">
         <v>8</v>
       </c>
       <c r="F81">
@@ -33051,7 +35304,7 @@
       </c>
     </row>
     <row r="82" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E82" s="16">
+      <c r="E82" s="15">
         <v>9</v>
       </c>
       <c r="F82">
@@ -33060,7 +35313,7 @@
       </c>
     </row>
     <row r="83" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E83" s="16">
+      <c r="E83" s="15">
         <v>10</v>
       </c>
       <c r="F83">
@@ -33074,7 +35327,7 @@
       </c>
     </row>
     <row r="87" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E87" s="16">
+      <c r="E87" s="15">
         <v>1</v>
       </c>
       <c r="F87">
@@ -33087,7 +35340,7 @@
       </c>
     </row>
     <row r="88" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E88" s="16">
+      <c r="E88" s="15">
         <v>2</v>
       </c>
       <c r="F88">
@@ -33100,7 +35353,7 @@
       </c>
     </row>
     <row r="89" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E89" s="16">
+      <c r="E89" s="15">
         <v>3</v>
       </c>
       <c r="F89">
@@ -33113,7 +35366,7 @@
       </c>
     </row>
     <row r="90" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E90" s="16">
+      <c r="E90" s="15">
         <v>4</v>
       </c>
       <c r="F90">
@@ -33126,7 +35379,7 @@
       </c>
     </row>
     <row r="91" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E91" s="16">
+      <c r="E91" s="15">
         <v>5</v>
       </c>
       <c r="F91">
@@ -33139,7 +35392,7 @@
       </c>
     </row>
     <row r="92" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E92" s="16">
+      <c r="E92" s="15">
         <v>6</v>
       </c>
       <c r="F92">
@@ -33152,7 +35405,7 @@
       </c>
     </row>
     <row r="93" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E93" s="16">
+      <c r="E93" s="15">
         <v>7</v>
       </c>
       <c r="F93">
@@ -33165,7 +35418,7 @@
       </c>
     </row>
     <row r="94" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E94" s="16">
+      <c r="E94" s="15">
         <v>8</v>
       </c>
       <c r="F94">
@@ -33178,7 +35431,7 @@
       </c>
     </row>
     <row r="95" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E95" s="16">
+      <c r="E95" s="15">
         <v>9</v>
       </c>
       <c r="F95">
@@ -33191,7 +35444,7 @@
       </c>
     </row>
     <row r="96" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E96" s="16">
+      <c r="E96" s="15">
         <v>10</v>
       </c>
       <c r="F96">
@@ -33220,10 +35473,10 @@
       <c r="H102" t="s">
         <v>313</v>
       </c>
-      <c r="I102" s="20">
+      <c r="I102" s="19">
         <v>0.05</v>
       </c>
-      <c r="K102" s="19"/>
+      <c r="K102" s="18"/>
     </row>
     <row r="103" spans="5:13" x14ac:dyDescent="0.45">
       <c r="E103">
@@ -33233,7 +35486,7 @@
         <f>E103*$I$102</f>
         <v>7622.05</v>
       </c>
-      <c r="K103" s="19"/>
+      <c r="K103" s="18"/>
       <c r="M103">
         <f>E103*$I$102</f>
         <v>7622.05</v>
@@ -33329,223 +35582,223 @@
       </c>
     </row>
     <row r="115" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E115" s="21" t="s">
+      <c r="E115" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="F115" s="23">
+      <c r="F115" s="22">
         <v>1</v>
       </c>
-      <c r="G115" s="23">
+      <c r="G115" s="22">
         <v>2</v>
       </c>
-      <c r="H115" s="23">
+      <c r="H115" s="22">
         <v>3</v>
       </c>
-      <c r="I115" s="23">
+      <c r="I115" s="22">
         <v>4</v>
       </c>
-      <c r="J115" s="23">
+      <c r="J115" s="22">
         <v>5</v>
       </c>
-      <c r="K115" s="23">
+      <c r="K115" s="22">
         <v>6</v>
       </c>
-      <c r="L115" s="23">
+      <c r="L115" s="22">
         <v>7</v>
       </c>
-      <c r="M115" s="23">
+      <c r="M115" s="22">
         <v>8</v>
       </c>
-      <c r="N115" s="23">
+      <c r="N115" s="22">
         <v>9</v>
       </c>
-      <c r="O115" s="23">
+      <c r="O115" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="116" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E116" s="23">
+      <c r="E116" s="22">
         <v>1</v>
       </c>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="22"/>
-      <c r="L116" s="22"/>
-      <c r="M116" s="22"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="22"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
     </row>
     <row r="117" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E117" s="23">
+      <c r="E117" s="22">
         <v>2</v>
       </c>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="22"/>
-      <c r="L117" s="22"/>
-      <c r="M117" s="22"/>
-      <c r="N117" s="22"/>
-      <c r="O117" s="22"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
     </row>
     <row r="118" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E118" s="23">
+      <c r="E118" s="22">
         <v>3</v>
       </c>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="22"/>
-      <c r="L118" s="22"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="22"/>
-      <c r="O118" s="22"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21"/>
     </row>
     <row r="119" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E119" s="23">
+      <c r="E119" s="22">
         <v>4</v>
       </c>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22"/>
-      <c r="I119" s="22"/>
-      <c r="J119" s="22"/>
-      <c r="K119" s="22"/>
-      <c r="L119" s="22"/>
-      <c r="M119" s="22"/>
-      <c r="N119" s="22"/>
-      <c r="O119" s="22"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+      <c r="O119" s="21"/>
     </row>
     <row r="120" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E120" s="23">
+      <c r="E120" s="22">
         <v>5</v>
       </c>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22">
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21">
         <v>25</v>
       </c>
-      <c r="K120" s="22"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+      <c r="O120" s="21"/>
     </row>
     <row r="121" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E121" s="23">
+      <c r="E121" s="22">
         <v>6</v>
       </c>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="22"/>
-      <c r="K121" s="22"/>
-      <c r="L121" s="22"/>
-      <c r="M121" s="22"/>
-      <c r="N121" s="22"/>
-      <c r="O121" s="22"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21"/>
     </row>
     <row r="122" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E122" s="23">
+      <c r="E122" s="22">
         <v>7</v>
       </c>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="22"/>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="22"/>
-      <c r="O122" s="22"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
+      <c r="O122" s="21"/>
     </row>
     <row r="123" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E123" s="23">
+      <c r="E123" s="22">
         <v>8</v>
       </c>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="22"/>
-      <c r="L123" s="22">
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21">
         <v>56</v>
       </c>
-      <c r="M123" s="22"/>
-      <c r="N123" s="22"/>
-      <c r="O123" s="22"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
     </row>
     <row r="124" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E124" s="23">
+      <c r="E124" s="22">
         <v>9</v>
       </c>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="22"/>
-      <c r="K124" s="22"/>
-      <c r="L124" s="22"/>
-      <c r="M124" s="22"/>
-      <c r="N124" s="22"/>
-      <c r="O124" s="22"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="21"/>
     </row>
     <row r="125" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E125" s="23">
+      <c r="E125" s="22">
         <v>10</v>
       </c>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
-      <c r="K125" s="22"/>
-      <c r="L125" s="22"/>
-      <c r="M125" s="22"/>
-      <c r="N125" s="22"/>
-      <c r="O125" s="22"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="21"/>
     </row>
     <row r="127" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="F127" s="23">
+      <c r="F127" s="22">
         <v>1</v>
       </c>
-      <c r="G127" s="23">
+      <c r="G127" s="22">
         <v>2</v>
       </c>
-      <c r="H127" s="23">
+      <c r="H127" s="22">
         <v>3</v>
       </c>
-      <c r="I127" s="23">
+      <c r="I127" s="22">
         <v>4</v>
       </c>
-      <c r="J127" s="23">
+      <c r="J127" s="22">
         <v>5</v>
       </c>
-      <c r="K127" s="23">
+      <c r="K127" s="22">
         <v>6</v>
       </c>
-      <c r="L127" s="23">
+      <c r="L127" s="22">
         <v>7</v>
       </c>
-      <c r="M127" s="23">
+      <c r="M127" s="22">
         <v>8</v>
       </c>
-      <c r="N127" s="23">
+      <c r="N127" s="22">
         <v>9</v>
       </c>
-      <c r="O127" s="23">
+      <c r="O127" s="22">
         <v>10</v>
       </c>
     </row>
@@ -33662,7 +35915,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="D5">
@@ -33744,7 +35997,7 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
       <c r="D7">
@@ -33826,7 +36079,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>6</v>
       </c>
       <c r="D9">
@@ -33908,7 +36161,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>8</v>
       </c>
       <c r="D11">
@@ -33990,7 +36243,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>10</v>
       </c>
       <c r="D13">
@@ -34144,6 +36397,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J21">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K4:K13">
     <cfRule type="dataBar" priority="8">
       <dataBar>
@@ -34172,6 +36433,11 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Sahoo"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M4:M13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -34182,19 +36448,6 @@
         <color theme="8"/>
         <color theme="3"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J21">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16:L22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Sahoo"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34327,10 +36580,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFCC522-681C-4DA4-A959-3188AB9971EE}">
-  <dimension ref="B2:K105"/>
+  <dimension ref="B2:K112"/>
   <sheetViews>
     <sheetView topLeftCell="A94" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+      <selection activeCell="C99" sqref="C99:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34412,8 +36665,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="2:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -34616,56 +36869,56 @@
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
@@ -34698,27 +36951,27 @@
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C61" t="s">
@@ -34746,12 +36999,12 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C65">
-        <f>SUMIF(Dataset!D1:D501,Arithmatic!D62,Dataset!J1:J501)</f>
+        <f>SUMIF(Dataset!D1:D501,Sum!D62,Dataset!J1:J501)</f>
         <v>9816750</v>
       </c>
     </row>
-    <row r="70" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="13" t="s">
+    <row r="70" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="12" t="s">
         <v>345</v>
       </c>
     </row>
@@ -34781,46 +37034,46 @@
       </c>
     </row>
     <row r="78" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C83" t="s">
@@ -34869,46 +37122,46 @@
       </c>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C99" t="s">
@@ -34946,14 +37199,34 @@
       <c r="C103" t="s">
         <v>271</v>
       </c>
-      <c r="D103" s="25" t="s">
+      <c r="D103" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C105">
-        <f>SUMIFS(Dataset!O1:O501,Dataset!H1:H501,Arithmatic!D101,Dataset!G1:G501,Arithmatic!D103)</f>
+        <f>SUMIFS(Dataset!O1:O501,Dataset!H1:H501,Sum!D101,Dataset!G1:G501,Sum!D103)</f>
         <v>853</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="F109" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="F112">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -34967,4 +37240,358 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C00D45B-3922-4BF4-A2D5-14DCC5128FE3}">
+  <dimension ref="B2:I57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="1.06640625" customWidth="1"/>
+    <col min="2" max="2" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C6" s="26">
+        <f>SUM(Dataset!J2:J501)</f>
+        <v>37114105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C16">
+        <f>SUMIF(Dataset!C1:C501,'Sum Revision'!D13,Dataset!O1:O501)</f>
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C18">
+        <f>SUMIFS(Dataset!O1:O501,Dataset!C1:C501,Dataset!C465)</f>
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>365</v>
+      </c>
+      <c r="E22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <f>E23*F23</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G25" si="0">E24*F24</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="G26">
+        <f>SUM(G23:G25)</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="G28">
+        <f>SUMPRODUCT(E23:E25,F23:F25)</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="G35" t="e">
+        <f>SUMPRODUCT(E30:E32,F30:F32,G30:G33)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="G42">
+        <f>SUMPRODUCT(Sum!F110:F112,'Sum Revision'!E38:E40,[1]Sumproduct!$D$18:$D$20)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="H47">
+        <f>[1]Sumproduct!$D$18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D53" t="s">
+        <v>365</v>
+      </c>
+      <c r="E53" t="s">
+        <v>369</v>
+      </c>
+      <c r="F53" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>366</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <f>E54*F54</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D55" t="s">
+        <v>367</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55:G56" si="1">E55*F55</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D56" t="s">
+        <v>368</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>25</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="G57">
+        <f>SUM(G54:G56)</f>
+        <v>410</v>
+      </c>
+      <c r="I57">
+        <f>SUMPRODUCT(E54:E56,F54:F56)</f>
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="C8:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>